--- a/results/case2_consq/data_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_case2_consq_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404913011735], ["'SUD manufacturing' (unit, GLO, None)", 0.01738270259445359], ["'SUD raw materials' (unit, GLO, None)", 0.001022410067347905], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00031425643291513414], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003037820216852094], ["'transport' (ton kilometer, GLO, None)", 1.1432094410763394e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621996094275344e-05], ["'surgery use' (unit, GLO, None)", 3.708647395465542e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.7337235303050535e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005217443589112451], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.585036260916948e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268350290749e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002639561333684371], ["'H200 SU' (unit, GLO, None)", 6.577912870490853e-05], ["'autoclave' (unit, GLO, None)", 0.0005799645338481664], ["'transport' (ton kilometer, GLO, None)", 4.676204603515806e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.89980509706632e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.137710962935433e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002843086046e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982775911402], ["'surgery use' (unit, GLO, None)", 3.708647395465542e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263490057283], ["'SUD manufacturing' (unit, GLO, None)", 0.9034429196858434], ["'SUD raw materials' (unit, GLO, None)", 0.1671249426940719], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.029837561123251408], ["'marginal heating grid' (megajoule, GLO, None)", -0.182527008732197], ["'transport' (ton kilometer, GLO, None)", 0.009201302590350662], ["'eol SUD' (kilogram, GLO, None)", 0.4228759528142073], ["'surgery use' (unit, GLO, None)", 0.003338416884331139], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575517186139973]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04458918006015379], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247596969136], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764909387414], ["'mechanical disinfection' (unit, GLO, None)", 0.025475888786079162], ["'H200 SU' (unit, GLO, None)", 0.07360901971598083], ["'autoclave' (unit, GLO, None)", 0.051298365300992355], ["'transport' (ton kilometer, GLO, None)", 0.0037637174768981353], ["'marginal heating grid' (megajoule, GLO, None)", -0.041457383758796665], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.006777009627491104], ["'eol MUD' (kilogram, GLO, None)", 0.014549819724613163], ["'scalpel' (unit, GLO, None)", 0.01855843282131866], ["'surgery use' (unit, GLO, None)", 0.003338416884331139]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381564264404004], ["'SUD manufacturing' (unit, GLO, None)", 0.6378164086247837], ["'SUD raw materials' (unit, GLO, None)", 0.02542561162296167], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.014597308766407035], ["'marginal heating grid' (megajoule, GLO, None)", -0.008210462140552047], ["'transport' (ton kilometer, GLO, None)", 0.00025509248825697695], ["'eol SUD' (kilogram, GLO, None)", 0.03522084816795548], ["'surgery use' (unit, GLO, None)", 0.00249928013975342], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025046830171288e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514845875314165], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699534469297], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383657296], ["'mechanical disinfection' (unit, GLO, None)", 0.01592645886865114], ["'H200 SU' (unit, GLO, None)", 0.0021271025568203143], ["'autoclave' (unit, GLO, None)", 0.022422924298327457], ["'transport' (ton kilometer, GLO, None)", 0.00010434349341853644], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018648433574964677], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0033154888778195407], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866118696279], ["'scalpel' (unit, GLO, None)", 0.01098912015862954], ["'surgery use' (unit, GLO, None)", 0.00249928013975342]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095810194495], ["'SUD manufacturing' (unit, GLO, None)", 0.8601234649790894], ["'SUD raw materials' (unit, GLO, None)", 0.0352527208243236], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.01802183516237819], ["'marginal heating grid' (megajoule, GLO, None)", -0.010524822897717593], ["'transport' (ton kilometer, GLO, None)", 0.00043158746261024665], ["'eol SUD' (kilogram, GLO, None)", 0.04844171331550265], ["'surgery use' (unit, GLO, None)", 0.003047335021030544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605173313768673e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0306153922004262], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00048401226053610785], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328955825], ["'mechanical disinfection' (unit, GLO, None)", 0.019365958932267197], ["'H200 SU' (unit, GLO, None)", 0.003257771376828245], ["'autoclave' (unit, GLO, None)", 0.02650207365230613], ["'transport' (ton kilometer, GLO, None)", 0.00017653731739457999], ["'marginal heating grid' (megajoule, GLO, None)", -0.0023905044239465557], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004093302059641854], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455225922061], ["'scalpel' (unit, GLO, None)", 0.01524433021926158], ["'surgery use' (unit, GLO, None)", 0.003047335021030544]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765497185078912], ["'SUD manufacturing' (unit, GLO, None)", 141.2544907783585], ["'SUD raw materials' (unit, GLO, None)", 7.355646482878762], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.9147836313941908], ["'marginal heating grid' (megajoule, GLO, None)", -0.8259193175239159], ["'transport' (ton kilometer, GLO, None)", 0.17727459740989718], ["'eol SUD' (kilogram, GLO, None)", 0.9425449790975685], ["'surgery use' (unit, GLO, None)", 0.1585703896624757], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.01083698787877755]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317247222266134], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.042765092634006095], ["'MUD raw materials' (unit, GLO, None)", 0.0593365436115308], ["'mechanical disinfection' (unit, GLO, None)", 1.0702688309613035], ["'H200 SU' (unit, GLO, None)", 0.1647872724944481], ["'autoclave' (unit, GLO, None)", 2.053171490271187], ["'transport' (ton kilometer, GLO, None)", 0.07251272240317481], ["'marginal heating grid' (megajoule, GLO, None)", -0.18759116438833384], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2077749401642162], ["'eol MUD' (kilogram, GLO, None)", 0.03487713415207639], ["'scalpel' (unit, GLO, None)", 3.264321953778074], ["'surgery use' (unit, GLO, None)", 0.1585703896624757]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640039906502], ["'SUD manufacturing' (unit, GLO, None)", 0.2576648741339278], ["'SUD raw materials' (unit, GLO, None)", 0.06922828455051533], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.007355315202490038], ["'marginal heating grid' (megajoule, GLO, None)", -0.055664813123769856], ["'transport' (ton kilometer, GLO, None)", 0.0029295109108855135], ["'eol SUD' (kilogram, GLO, None)", 0.0035731898409241247], ["'surgery use' (unit, GLO, None)", 0.0007670950867522556], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396310827955]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01122870973914093], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392669455198], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097092937225], ["'mechanical disinfection' (unit, GLO, None)", 0.0062063309943517124], ["'H200 SU' (unit, GLO, None)", 0.0264481633270275], ["'autoclave' (unit, GLO, None)", 0.013280171299919416], ["'transport' (ton kilometer, GLO, None)", 0.001198292448900258], ["'marginal heating grid' (megajoule, GLO, None)", -0.01264315640497732], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0016706138190920217], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271651766777], ["'scalpel' (unit, GLO, None)", 0.004552448413926323], ["'surgery use' (unit, GLO, None)", 0.0007670950867522556]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.099117825924294e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001260926036112443], ["'SUD raw materials' (unit, GLO, None)", 5.755860525605402e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.202519850530353e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.1967298554552514e-05], ["'transport' (ton kilometer, GLO, None)", 9.220203904094337e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772997708809997e-06], ["'surgery use' (unit, GLO, None)", 1.458626103509843e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782407098831e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.114180113738668e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.698054217426185e-06], ["'MUD raw materials' (unit, GLO, None)", 2.244443810618636e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.4340504241365772e-05], ["'H200 SU' (unit, GLO, None)", 3.1801553562983e-06], ["'autoclave' (unit, GLO, None)", -1.829169105176293e-05], ["'transport' (ton kilometer, GLO, None)", 3.771448904505788e-07], ["'marginal heating grid' (megajoule, GLO, None)", -7.260736770482864e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.731285097541951e-06], ["'eol MUD' (kilogram, GLO, None)", 3.5538438700673267e-07], ["'scalpel' (unit, GLO, None)", 1.910487327731369e-05], ["'surgery use' (unit, GLO, None)", 1.458626103509843e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159364541069e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.362399748932618e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098931319993e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2847268766409503e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.815870826923287e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754490731687e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353599193926e-06], ["'surgery use' (unit, GLO, None)", 1.286843286006827e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926440298918e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299748010343931e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581905244772e-07], ["'MUD raw materials' (unit, GLO, None)", 2.94023055972211e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.8614738988376534e-05], ["'H200 SU' (unit, GLO, None)", 6.794342828878007e-07], ["'autoclave' (unit, GLO, None)", 0.00013305167338700607], ["'transport' (ton kilometer, GLO, None)", 1.0216860208060373e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.395691152657705e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9180020363351786e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287970249633e-08], ["'scalpel' (unit, GLO, None)", 6.95037766288739e-07], ["'surgery use' (unit, GLO, None)", 1.286843286006827e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020370235738906813], ["'SUD manufacturing' (unit, GLO, None)", 0.1508039967828752], ["'SUD raw materials' (unit, GLO, None)", 0.01405179596551843], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004482173054905443], ["'marginal heating grid' (megajoule, GLO, None)", -0.0031168213377122085], ["'transport' (ton kilometer, GLO, None)", 0.00012238156715076696], ["'eol SUD' (kilogram, GLO, None)", 0.007893174938357407], ["'surgery use' (unit, GLO, None)", 0.0005170129751330552], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574876342349043e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00470279472975929], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004168914136646813], ["'MUD raw materials' (unit, GLO, None)", 8.878766872258745e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0032576203650805814], ["'H200 SU' (unit, GLO, None)", 0.0007707979613714422], ["'autoclave' (unit, GLO, None)", 0.0027162201354223236], ["'transport' (ton kilometer, GLO, None)", 5.0059177884070703e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007079240447901339], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010180366223533134], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426357798202], ["'scalpel' (unit, GLO, None)", 0.005047138260030491], ["'surgery use' (unit, GLO, None)", 0.0005170129751330552]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012957144182396], ["'SUD manufacturing' (unit, GLO, None)", 15.69234268246364], ["'SUD raw materials' (unit, GLO, None)", 0.3317613431221256], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14533510564746036], ["'marginal heating grid' (megajoule, GLO, None)", -0.12382704255298857], ["'transport' (ton kilometer, GLO, None)", 0.007777795273203098], ["'eol SUD' (kilogram, GLO, None)", 0.5678474454479804], ["'surgery use' (unit, GLO, None)", 0.019721507272056], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338116900888107]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222791590119065], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00868648464187931], ["'MUD raw materials' (unit, GLO, None)", 0.00659769828931217], ["'mechanical disinfection' (unit, GLO, None)", 0.1337065014165452], ["'H200 SU' (unit, GLO, None)", 0.03307416080109313], ["'autoclave' (unit, GLO, None)", 0.11495177440315642], ["'transport' (ton kilometer, GLO, None)", 0.003181443465644639], ["'marginal heating grid' (megajoule, GLO, None)", -0.02812485263683914], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.033009983829333386], ["'eol MUD' (kilogram, GLO, None)", 0.010057098993429677], ["'scalpel' (unit, GLO, None)", 0.1364140600597946], ["'surgery use' (unit, GLO, None)", 0.019721507272056]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002717600489550932], ["'SUD manufacturing' (unit, GLO, None)", 0.05956484694817126], ["'SUD raw materials' (unit, GLO, None)", 0.002150464188223824], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.46729699140515e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012630398832212187], ["'transport' (ton kilometer, GLO, None)", 3.997786118315376e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132276171936887], ["'surgery use' (unit, GLO, None)", 1.608535165557934e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.5745385322293e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001052736170771915], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547213083645], ["'MUD raw materials' (unit, GLO, None)", -2.301735607687431e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509264681469812], ["'H200 SU' (unit, GLO, None)", 1.725527765368893e-05], ["'autoclave' (unit, GLO, None)", 0.0012325863028706], ["'transport' (ton kilometer, GLO, None)", 1.6352616746006735e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028687441658671797], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.6960482592075043e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900811286925e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478391729833], ["'surgery use' (unit, GLO, None)", 1.608535165557934e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01906269443358928], ["'SUD manufacturing' (unit, GLO, None)", 0.1463151825180493], ["'SUD raw materials' (unit, GLO, None)", 0.001500136776078999], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14706200589098883], ["'marginal heating grid' (megajoule, GLO, None)", -0.060467115921749415], ["'transport' (ton kilometer, GLO, None)", 0.00038087301639012683], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261487561739], ["'surgery use' (unit, GLO, None)", 0.0131515968429548], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025281784353]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476675260854848], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587709523698], ["'MUD raw materials' (unit, GLO, None)", 4.804244788028912e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.08821417072048787], ["'H200 SU' (unit, GLO, None)", -0.01466440119756381], ["'autoclave' (unit, GLO, None)", 0.176939893724431], ["'transport' (ton kilometer, GLO, None)", 0.0001557929884590177], ["'marginal heating grid' (megajoule, GLO, None)", -0.013733904077908766], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03340221493454223], ["'eol MUD' (kilogram, GLO, None)", 2.9114548308708112e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021816049274], ["'surgery use' (unit, GLO, None)", 0.0131515968429548]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.70102414416295e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907673153385683], ["'SUD raw materials' (unit, GLO, None)", 0.006047829504827866], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003876311946925949], ["'marginal heating grid' (megajoule, GLO, None)", -0.00019652516395990633], ["'transport' (ton kilometer, GLO, None)", 3.981534355401911e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050933589471583e-05], ["'surgery use' (unit, GLO, None)", 2.295113186497895e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785077934303126e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378508883808804e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.780967978408013e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085846135911], ["'mechanical disinfection' (unit, GLO, None)", 6.447840151085924e-05], ["'H200 SU' (unit, GLO, None)", 1.4673878463884422e-05], ["'autoclave' (unit, GLO, None)", 0.0003263012181231469], ["'transport' (ton kilometer, GLO, None)", 1.6286140240634595e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.463678661660498e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.804273001724919e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593804143075827e-06], ["'scalpel' (unit, GLO, None)", 0.002545299619870873], ["'surgery use' (unit, GLO, None)", 2.295113186497895e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803653258513e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.646685958043e-07], ["'SUD raw materials' (unit, GLO, None)", 6.89200673884115e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.411992444795408e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.79068706900239e-08], ["'transport' (ton kilometer, GLO, None)", 4.101500204545123e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213699491806e-08], ["'surgery use' (unit, GLO, None)", 1.286921462491251e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422634012502043e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.058667083067138e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.4253517560505944e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842786558101e-09], ["'mechanical disinfection' (unit, GLO, None)", 6.030513927680822e-08], ["'H200 SU' (unit, GLO, None)", -1.0264088387786675e-08], ["'autoclave' (unit, GLO, None)", -1.8381427925878176e-07], ["'transport' (ton kilometer, GLO, None)", 1.6776850722783867e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.2237600555731992e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.2070605076586886e-08], ["'eol MUD' (kilogram, GLO, None)", 2.14474508041174e-09], ["'scalpel' (unit, GLO, None)", 5.765542956968584e-09], ["'surgery use' (unit, GLO, None)", 1.286921462491251e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506547352898], ["'SUD manufacturing' (unit, GLO, None)", 0.00577454060714358], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913479968962], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00011081834685005402], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001858017344568214], ["'transport' (ton kilometer, GLO, None)", 7.046592330106169e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581642252609163e-05], ["'surgery use' (unit, GLO, None)", 1.293174690281223e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407973811e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000196772350833557], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291638070074e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836729909641e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.737320808364559e-05], ["'H200 SU' (unit, GLO, None)", 3.0334297938763577e-05], ["'autoclave' (unit, GLO, None)", 0.00024060146918194474], ["'transport' (ton kilometer, GLO, None)", 2.882350889450122e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.220117264797824e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.517018734886553e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668602776288e-06], ["'scalpel' (unit, GLO, None)", 0.0001336462472364643], ["'surgery use' (unit, GLO, None)", 1.293174690281223e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00016660384199321075], ["'SUD manufacturing' (unit, GLO, None)", 0.004776580398821107], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160859235567], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00036692971006666654], ["'marginal heating grid' (megajoule, GLO, None)", -0.00040538469642133353], ["'transport' (ton kilometer, GLO, None)", 1.461725924393109e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404060094852639e-05], ["'surgery use' (unit, GLO, None)", 3.492260994132823e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.1904544202035485e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003871030398105129], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.4429871284475956e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136521192074e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.0002342238116452951], ["'H200 SU' (unit, GLO, None)", 4.36612784980136e-05], ["'autoclave' (unit, GLO, None)", 0.00041334986844433557], ["'transport' (ton kilometer, GLO, None)", 5.979070195825137e-06], ["'marginal heating grid' (megajoule, GLO, None)", -9.207507999071245e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.334079878252943e-05], ["'eol MUD' (kilogram, GLO, None)", 3.060652012752582e-06], ["'scalpel' (unit, GLO, None)", 6.607934872802313e-05], ["'surgery use' (unit, GLO, None)", 3.492260994132823e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416747172183], ["'SUD manufacturing' (unit, GLO, None)", 0.004907980512912011], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382357112413], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00037498707438052433], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004284139996567769], ["'transport' (ton kilometer, GLO, None)", 1.6594221730190456e-05], ["'eol SUD' (kilogram, GLO, None)", 9.55635576507986e-05], ["'surgery use' (unit, GLO, None)", 3.572138005011489e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437202805524e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003958674193337659], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.80524210793597e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446415309929e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968691985186966], ["'H200 SU' (unit, GLO, None)", 4.816700247986535e-05], ["'autoclave' (unit, GLO, None)", 0.00042203552941302456], ["'transport' (ton kilometer, GLO, None)", 6.7877305118666296e-06], ["'marginal heating grid' (megajoule, GLO, None)", -9.730572869613367e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.517086911909813e-05], ["'eol MUD' (kilogram, GLO, None)", 3.12059480096149e-06], ["'scalpel' (unit, GLO, None)", 6.891290063753274e-05], ["'surgery use' (unit, GLO, None)", 3.572138005011489e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805802451748], ["'SUD manufacturing' (unit, GLO, None)", 0.006288120740856097], ["'SUD raw materials' (unit, GLO, None)", 0.00189287462704797], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003264139525425242], ["'marginal heating grid' (megajoule, GLO, None)", -0.000536404590334653], ["'transport' (ton kilometer, GLO, None)", 1.3643310255186518e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350832453855], ["'surgery use' (unit, GLO, None)", 3.101371694515751e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701484421003e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004538639856767283], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002317272845903471], ["'MUD raw materials' (unit, GLO, None)", -1.660040585432643e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.0002514870067189083], ["'H200 SU' (unit, GLO, None)", 0.0003436669323828275], ["'autoclave' (unit, GLO, None)", 0.0005822019712998863], ["'transport' (ton kilometer, GLO, None)", 5.580684337458804e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001218336459132535], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.413844884273357e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770237092001e-05], ["'scalpel' (unit, GLO, None)", -1.265926844584432e-05], ["'surgery use' (unit, GLO, None)", 3.101371694515751e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.358886269467356e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.113666171263923e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309336511781e-10], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5330395402795582e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.2046626625850175e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523736209823e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265640183458e-09], ["'surgery use' (unit, GLO, None)", 1.43270777987171e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493677971081e-11]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650602847049167e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359306710062e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420610356443e-12], ["'mechanical disinfection' (unit, GLO, None)", 9.753612217518927e-10], ["'H200 SU' (unit, GLO, None)", 1.0211416445759828e-10], ["'autoclave' (unit, GLO, None)", 1.919708440680114e-09], ["'transport' (ton kilometer, GLO, None)", 1.496080133543142e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.7361519070284995e-10], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.481994952899476e-10], ["'eol MUD' (kilogram, GLO, None)", 4.311260294179551e-11], ["'scalpel' (unit, GLO, None)", 2.017326785065965e-10], ["'surgery use' (unit, GLO, None)", 1.43270777987171e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702589734993e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.56086436606702e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183345813815e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4652754196192095e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.2649873019000015e-07], ["'transport' (ton kilometer, GLO, None)", 1.5194347568320897e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491255195532e-07], ["'surgery use' (unit, GLO, None)", 1.754646640617046e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563628810909e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.326735825766809e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920205982896e-08], ["'MUD raw materials' (unit, GLO, None)", 5.40573682995689e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2694774981418233e-07], ["'H200 SU' (unit, GLO, None)", 9.826321957774874e-08], ["'autoclave' (unit, GLO, None)", 2.3557947914087017e-07], ["'transport' (ton kilometer, GLO, None)", 6.215123449252269e-09], ["'marginal heating grid' (megajoule, GLO, None)", -7.415769999335441e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.328082206406337e-08], ["'eol MUD' (kilogram, GLO, None)", 1.689238252923328e-08], ["'scalpel' (unit, GLO, None)", 1.490714930232164e-07], ["'surgery use' (unit, GLO, None)", 1.754646640617046e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774341648757], ["'SUD manufacturing' (unit, GLO, None)", 0.05167452942297835], ["'SUD raw materials' (unit, GLO, None)", 0.02615081598832149], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0024436001744163435], ["'marginal heating grid' (megajoule, GLO, None)", -0.01899556430048804], ["'transport' (ton kilometer, GLO, None)", 0.0012339467101600914], ["'eol SUD' (kilogram, GLO, None)", 0.0012880155158848236], ["'surgery use' (unit, GLO, None)", 0.0002378860341183502], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689634017052354]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002632041730587011], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270350246787], ["'MUD raw materials' (unit, GLO, None)", 0.0001319971316422587], ["'mechanical disinfection' (unit, GLO, None)", 0.0017683184773413473], ["'H200 SU' (unit, GLO, None)", 0.0110162068154943], ["'autoclave' (unit, GLO, None)", 0.0022770351951231682], ["'transport' (ton kilometer, GLO, None)", 0.0005047357972403669], ["'marginal heating grid' (megajoule, GLO, None)", -0.004314465044872659], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005550152654686517], ["'eol MUD' (kilogram, GLO, None)", 4.480258032278564e-05], ["'scalpel' (unit, GLO, None)", 0.001563766602963249], ["'surgery use' (unit, GLO, None)", 0.0002378860341183502]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404825607005], ["'SUD manufacturing' (unit, GLO, None)", 0.0173827025829531], ["'SUD raw materials' (unit, GLO, None)", 0.001022410068798546], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564327681536], ["'marginal heating grid' (megajoule, GLO, None)", -0.00027731229226874414], ["'transport' (ton kilometer, GLO, None)", 1.143209445079056e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621997821742193e-05], ["'surgery use' (unit, GLO, None)", 3.708647408185761e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723213437417e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005217443275300898], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.5850362222512724e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349907885e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002639561139093494], ["'H200 SU' (unit, GLO, None)", 6.99457121664817e-05], ["'autoclave' (unit, GLO, None)", 0.00014499112333179], ["'transport' (ton kilometer, GLO, None)", 4.67620461988859e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.298597780937035e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.137710959597062e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002874718944e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982769725432], ["'surgery use' (unit, GLO, None)", 3.708647408185761e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263468585909], ["'SUD manufacturing' (unit, GLO, None)", 0.9034429189840077], ["'SUD raw materials' (unit, GLO, None)", 0.1671249427400933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561049237248], ["'marginal heating grid' (megajoule, GLO, None)", -0.08053530581110499], ["'transport' (ton kilometer, GLO, None)", 0.009201302593578894], ["'eol SUD' (kilogram, GLO, None)", 0.4228759518282819], ["'surgery use' (unit, GLO, None)", 0.003338416584266691], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001757551702517957]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04458917523625558], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247528878024], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764882866745], ["'mechanical disinfection' (unit, GLO, None)", 0.025475885352399013], ["'H200 SU' (unit, GLO, None)", 0.08966346607408952], ["'autoclave' (unit, GLO, None)", 0.012824590004895471], ["'transport' (ton kilometer, GLO, None)", 0.0037637174782186172], ["'marginal heating grid' (megajoule, GLO, None)", -0.01829199471537759], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006777009610680258], ["'eol MUD' (kilogram, GLO, None)", 0.014549819734271373], ["'scalpel' (unit, GLO, None)", 0.01855843273234735], ["'surgery use' (unit, GLO, None)", 0.003338416584266691]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381563954548322], ["'SUD manufacturing' (unit, GLO, None)", 0.6378164083258063], ["'SUD raw materials' (unit, GLO, None)", 0.02542561168140022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308772008087], ["'marginal heating grid' (megajoule, GLO, None)", -0.009968264893405632], ["'transport' (ton kilometer, GLO, None)", 0.00025509249097094034], ["'eol SUD' (kilogram, GLO, None)", 0.03522084806691643], ["'surgery use' (unit, GLO, None)", 0.002499280145722626], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025046061979921e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514845799977498], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00036086994163396665], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795382563484], ["'mechanical disinfection' (unit, GLO, None)", 0.015926458322958578], ["'H200 SU' (unit, GLO, None)", 0.0018504080234601314], ["'autoclave' (unit, GLO, None)", 0.00560573087087693], ["'transport' (ton kilometer, GLO, None)", 0.00010434349452866093], ["'marginal heating grid' (megajoule, GLO, None)", -0.002264093330437407], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003315488879091709], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866119942085], ["'scalpel' (unit, GLO, None)", 0.01098912015162067], ["'surgery use' (unit, GLO, None)", 0.002499280145722626]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095403591744], ["'SUD manufacturing' (unit, GLO, None)", 0.86012346459264], ["'SUD raw materials' (unit, GLO, None)", 0.03525272090567552], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835170707635], ["'marginal heating grid' (megajoule, GLO, None)", -0.012605886788799016], ["'transport' (ton kilometer, GLO, None)", 0.0004315874663551458], ["'eol SUD' (kilogram, GLO, None)", 0.048441713196777605], ["'surgery use' (unit, GLO, None)", 0.003047335028869901], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172273683405e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0306153911515743], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00048401224499754095], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328831689], ["'mechanical disinfection' (unit, GLO, None)", 0.019365958189360048], ["'H200 SU' (unit, GLO, None)", 0.0029301925336839975], ["'autoclave' (unit, GLO, None)", 0.00662551812859763], ["'transport' (ton kilometer, GLO, None)", 0.0001765373189264003], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028631767421880725], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004093302061533723], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455228291854], ["'scalpel' (unit, GLO, None)", 0.0152443302101365], ["'surgery use' (unit, GLO, None)", 0.003047335028869901]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765496908068697], ["'SUD manufacturing' (unit, GLO, None)", 141.2544907666617], ["'SUD raw materials' (unit, GLO, None)", 7.355646502552362], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836332732063], ["'marginal heating grid' (megajoule, GLO, None)", -0.9344653582382002], ["'transport' (ton kilometer, GLO, None)", 0.17727459810916638], ["'eol SUD' (kilogram, GLO, None)", 0.9425449839516342], ["'surgery use' (unit, GLO, None)", 0.1585703924066002], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836986155399034]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317247019162929], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509082546438], ["'MUD raw materials' (unit, GLO, None)", 0.0593365436304546], ["'mechanical disinfection' (unit, GLO, None)", 1.0702687037657819], ["'H200 SU' (unit, GLO, None)", 0.14770111826055726], ["'autoclave' (unit, GLO, None)", 0.5132928079877958], ["'transport' (ton kilometer, GLO, None)", 0.07251272268920515], ["'marginal heating grid' (megajoule, GLO, None)", -0.21224524104606557], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.20777494059099727], ["'eol MUD' (kilogram, GLO, None)", 0.03487713441945145], ["'scalpel' (unit, GLO, None)", 3.264321952544929], ["'surgery use' (unit, GLO, None)", 0.1585703924066002]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640033415154], ["'SUD manufacturing' (unit, GLO, None)", 0.2576648738266425], ["'SUD raw materials' (unit, GLO, None)", 0.06922828452475037], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315169534866], ["'marginal heating grid' (megajoule, GLO, None)", -0.021407498094846485], ["'transport' (ton kilometer, GLO, None)", 0.0029295109107642043], ["'eol SUD' (kilogram, GLO, None)", 0.0035731893970664115], ["'surgery use' (unit, GLO, None)", 0.0007670949881754312], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173962944639553]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01122870855902125], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392648363301], ["'MUD raw materials' (unit, GLO, None)", 0.000238809708095001], ["'mechanical disinfection' (unit, GLO, None)", 0.0062063301462092465], ["'H200 SU' (unit, GLO, None)", 0.0318405845660348], ["'autoclave' (unit, GLO, None)", 0.0033200425214012785], ["'transport' (ton kilometer, GLO, None)", 0.0011982924488506375], ["'marginal heating grid' (megajoule, GLO, None)", -0.004862287888231897], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0016706138116069085], ["'eol MUD' (kilogram, GLO, None)", 0.00013301272186712806], ["'scalpel' (unit, GLO, None)", 0.004552448384717302], ["'surgery use' (unit, GLO, None)", 0.0007670949881754312]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991178183853105e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001260926036332069], ["'SUD raw materials' (unit, GLO, None)", 5.755860548260059e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198558484102e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.0495129483301714e-05], ["'transport' (ton kilometer, GLO, None)", 9.220203974220798e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772998146813772e-06], ["'surgery use' (unit, GLO, None)", 1.458626211946174e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782152676701e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.114180009745653e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.698054197298967e-06], ["'MUD raw materials' (unit, GLO, None)", 2.2444438214417e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.434050330961887e-05], ["'H200 SU' (unit, GLO, None)", 3.4118885755924873e-06], ["'autoclave' (unit, GLO, None)", -4.572923056344353e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448933190443e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.926362813616994e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7312851096208625e-06], ["'eol MUD' (kilogram, GLO, None)", 3.5538437615394484e-07], ["'scalpel' (unit, GLO, None)", 1.910487327829949e-05], ["'surgery use' (unit, GLO, None)", 1.458626211946174e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159357467541e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.362399742423872e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098933115707e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268765580018e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.6852425183435473e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754494301156e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353625983757e-06], ["'surgery use' (unit, GLO, None)", 1.286843307254647e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926441474396e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299748004719524e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581878846381e-07], ["'MUD raw materials' (unit, GLO, None)", 2.940230558358871e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.861473893385694e-05], ["'H200 SU' (unit, GLO, None)", 6.99996404606333e-07], ["'autoclave' (unit, GLO, None)", 3.3262918337207535e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860222660996e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.098994901721035e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9180020361467773e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287930879506e-08], ["'scalpel' (unit, GLO, None)", 6.950377643947369e-07], ["'surgery use' (unit, GLO, None)", 1.286843307254647e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00203702357961185], ["'SUD manufacturing' (unit, GLO, None)", 0.1508039971346109], ["'SUD raw materials' (unit, GLO, None)", 0.01405179600849487], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00448217305115698], ["'marginal heating grid' (megajoule, GLO, None)", -0.0031313784660515847], ["'transport' (ton kilometer, GLO, None)", 0.0001223815687033541], ["'eol SUD' (kilogram, GLO, None)", 0.00789317477068353], ["'surgery use' (unit, GLO, None)", 0.0005170129623434573], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574876217006623e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004702794301355635], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004168914106870573], ["'MUD raw materials' (unit, GLO, None)", 8.878766851042657e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.003257620073240281], ["'H200 SU' (unit, GLO, None)", 0.000768506558099066], ["'autoclave' (unit, GLO, None)", 0.0006790549036209405], ["'transport' (ton kilometer, GLO, None)", 5.005917851914375e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000711230407285106], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010180366215019243], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426371119705], ["'scalpel' (unit, GLO, None)", 0.005047138254191204], ["'surgery use' (unit, GLO, None)", 0.0005170129623434573]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0501295709129968], ["'SUD manufacturing' (unit, GLO, None)", 15.69234267844423], ["'SUD raw materials' (unit, GLO, None)", 0.3317613450637821], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14533510588009363], ["'marginal heating grid' (megajoule, GLO, None)", -0.1287197267011156], ["'transport' (ton kilometer, GLO, None)", 0.007777795349487369], ["'eol SUD' (kilogram, GLO, None)", 0.5678474463437756], ["'surgery use' (unit, GLO, None)", 0.01972150726323513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003533811507768015]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222791351432203], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.008686484404592722], ["'MUD raw materials' (unit, GLO, None)", 0.006597698291686547], ["'mechanical disinfection' (unit, GLO, None)", 0.13370648596982715], ["'H200 SU' (unit, GLO, None)", 0.032304007376548], ["'autoclave' (unit, GLO, None)", 0.028737936402010476], ["'transport' (ton kilometer, GLO, None)", 0.0031814434968480956], ["'marginal heating grid' (megajoule, GLO, None)", -0.029236128637845027], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03300998388217142], ["'eol MUD' (kilogram, GLO, None)", 0.010057099006487052], ["'scalpel' (unit, GLO, None)", 0.1364140599415152], ["'surgery use' (unit, GLO, None)", 0.01972150726323513]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002717600485803007], ["'SUD manufacturing' (unit, GLO, None)", 0.05956484689813305], ["'SUD raw materials' (unit, GLO, None)", 0.002150464180837887], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.467296359053567e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012287559722618779], ["'transport' (ton kilometer, GLO, None)", 3.9977860834357675e-05], ["'eol SUD' (kilogram, GLO, None)", -0.0002213227853337028], ["'surgery use' (unit, GLO, None)", 1.608536582540563e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538538803569e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001052736334235308], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547209249475], ["'MUD raw materials' (unit, GLO, None)", -2.301735616514961e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509265631792941], ["'H200 SU' (unit, GLO, None)", 7.122135469633478e-05], ["'autoclave' (unit, GLO, None)", 0.00030814663148315806], ["'transport' (ton kilometer, GLO, None)", 1.6352616603334552e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.002790875073327611], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6960481155813966e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900176407687e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478364127617], ["'surgery use' (unit, GLO, None)", 1.608536582540563e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01906269397959025], ["'SUD manufacturing' (unit, GLO, None)", 0.1463152292404379], ["'SUD raw materials' (unit, GLO, None)", 0.001500135223476624], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14706200591103682], ["'marginal heating grid' (megajoule, GLO, None)", -0.06322557700601357], ["'transport' (ton kilometer, GLO, None)", 0.0003808728136179652], ["'eol SUD' (kilogram, GLO, None)", 0.000810108655235407], ["'surgery use' (unit, GLO, None)", 0.01315159284653725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002951802625094157]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476675264331839], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409589790689958], ["'MUD raw materials' (unit, GLO, None)", 4.80424510731086e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0882141693044515], ["'H200 SU' (unit, GLO, None)", -0.015098601021490448], ["'autoclave' (unit, GLO, None)", 0.04423497045492578], ["'transport' (ton kilometer, GLO, None)", 0.00015579290551672543], ["'marginal heating grid' (megajoule, GLO, None)", -0.01436043371069222], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03340221493909573], ["'eol MUD' (kilogram, GLO, None)", 2.9114535160267923e-05], ["'scalpel' (unit, GLO, None)", 0.0008428024710126215], ["'surgery use' (unit, GLO, None)", 0.01315159284653725]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023719392437e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907673156051746], ["'SUD raw materials' (unit, GLO, None)", 0.006047829506984387], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038763119316006855], ["'marginal heating grid' (megajoule, GLO, None)", -2.6144336517968306e-05], ["'transport' (ton kilometer, GLO, None)", 3.9815343453328566e-05], ["'eol SUD' (kilogram, GLO, None)", -2.805095795634685e-05], ["'surgery use' (unit, GLO, None)", 2.294986809444041e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.97850765797933e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378642288606472e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809677794044904e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085846189683], ["'mechanical disinfection' (unit, GLO, None)", 6.447757409324947e-05], ["'H200 SU' (unit, GLO, None)", 4.1493409838388023e-05], ["'autoclave' (unit, GLO, None)", 8.157493078032804e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614019944795e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.938166628998958e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.804272966916626e-05], ["'eol MUD' (kilogram, GLO, None)", 2.059380056886979e-06], ["'scalpel' (unit, GLO, None)", 0.002545299619575384], ["'surgery use' (unit, GLO, None)", 2.294986809444041e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803601702953e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.646685956573643e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006738070163e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924444850766e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.232561221677477e-08], ["'transport' (ton kilometer, GLO, None)", 4.101500201269527e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213698524894e-08], ["'surgery use' (unit, GLO, None)", 1.286921458194122e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633919737751e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.058665818198341e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.425351740670821e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842785815755e-09], ["'mechanical disinfection' (unit, GLO, None)", 6.030513832472544e-08], ["'H200 SU' (unit, GLO, None)", -9.38554615591311e-09], ["'autoclave' (unit, GLO, None)", -4.595357018272936e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850709385307e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.0969928576720867e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.207060506953832e-08], ["'eol MUD' (kilogram, GLO, None)", 2.14474508075573e-09], ["'scalpel' (unit, GLO, None)", 5.765542920008924e-09], ["'surgery use' (unit, GLO, None)", 1.286921458194122e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506505317199], ["'SUD manufacturing' (unit, GLO, None)", 0.005774540605208774], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913485568983], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834678497002], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001733797689703679], ["'transport' (ton kilometer, GLO, None)", 7.0465923311757625e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581643389228624e-05], ["'surgery use' (unit, GLO, None)", 1.29317470710072e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407842816066e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001967723417835494], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291489590684e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836729582777e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.737320187260185e-05], ["'H200 SU' (unit, GLO, None)", 3.228963161830622e-05], ["'autoclave' (unit, GLO, None)", 6.015036414478234e-05], ["'transport' (ton kilometer, GLO, None)", 2.8823508898876306e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.9379769975642724e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5170187334082994e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668333199494e-06], ["'scalpel' (unit, GLO, None)", 0.0001336462469921406], ["'surgery use' (unit, GLO, None)", 1.29317470710072e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001666038407561266], ["'SUD manufacturing' (unit, GLO, None)", 0.004776580387474162], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160843285018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036692970914754293], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003401918410446468], ["'transport' (ton kilometer, GLO, None)", 1.4617259137023953e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404059952679363e-05], ["'surgery use' (unit, GLO, None)", 3.492260898640712e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.1904543070886215e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003871030265931541], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987092444918e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136504126601e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422380228272643], ["'H200 SU' (unit, GLO, None)", 5.392324300008643e-05], ["'autoclave' (unit, GLO, None)", 0.0001033374620449336], ["'transport' (ton kilometer, GLO, None)", 5.979070152095648e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.726781808215588e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.334079857376876e-05], ["'eol MUD' (kilogram, GLO, None)", 3.060652040570723e-06], ["'scalpel' (unit, GLO, None)", 6.607934797160176e-05], ["'surgery use' (unit, GLO, None)", 3.492260898640712e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416616541176], ["'SUD manufacturing' (unit, GLO, None)", 0.004907980500752537], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382340054113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000374987073398557], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003516438246222199], ["'transport' (ton kilometer, GLO, None)", 1.6594221626226944e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355531350328e-05], ["'surgery use' (unit, GLO, None)", 3.572137894878646e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437096979225e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000395867405193608], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242065484017e-05], ["'MUD raw materials' (unit, GLO, None)", 9.384464134013968e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968690981469753], ["'H200 SU' (unit, GLO, None)", 6.025134526857427e-05], ["'autoclave' (unit, GLO, None)", 0.00010550887709414691], ["'transport' (ton kilometer, GLO, None)", 6.787730469341205e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.986890863457635e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.517086889606374e-05], ["'eol MUD' (kilogram, GLO, None)", 3.120594843126595e-06], ["'scalpel' (unit, GLO, None)", 6.891289983806622e-05], ["'surgery use' (unit, GLO, None)", 3.572137894878646e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805794807718], ["'SUD manufacturing' (unit, GLO, None)", 0.006288120741945967], ["'SUD raw materials' (unit, GLO, None)", 0.001892874628517919], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395280356175], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010988812349843199], ["'transport' (ton kilometer, GLO, None)", 1.3643310316075566e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350826824143], ["'surgery use' (unit, GLO, None)", 3.101371714118827e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701469652979e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004538639736178146], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728430864535], ["'MUD raw materials' (unit, GLO, None)", -1.660040584415944e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148699575737986], ["'H200 SU' (unit, GLO, None)", 0.00025512785859903276], ["'autoclave' (unit, GLO, None)", 0.00014555049069739105], ["'transport' (ton kilometer, GLO, None)", 5.58068436236497e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002495890409891396], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.413844890202308e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770173684228e-05], ["'scalpel' (unit, GLO, None)", -1.265926855105754e-05], ["'surgery use' (unit, GLO, None)", 3.101371714118827e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.3588862185360286e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.113666212117138e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309205106672e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5330395401541264e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.296356731497893e-10], ["'transport' (ton kilometer, GLO, None)", 3.657523558121356e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626264063020164e-09], ["'surgery use' (unit, GLO, None)", 1.432707416654345e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493747099878e-11]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.65060282450216e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359454309301e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420628846116e-12], ["'mechanical disinfection' (unit, GLO, None)", 9.753611916138248e-10], ["'H200 SU' (unit, GLO, None)", 1.4540604937657633e-10], ["'autoclave' (unit, GLO, None)", 4.799270761230874e-10], ["'transport' (ton kilometer, GLO, None)", 1.496080060697513e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.111482740298682e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.481994952614582e-10], ["'eol MUD' (kilogram, GLO, None)", 4.3112602854158303e-11], ["'scalpel' (unit, GLO, None)", 2.017326805728787e-10], ["'surgery use' (unit, GLO, None)", 1.432707416654345e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.479170253294012e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.56086436444413e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183355624784e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275418924919e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.2639190493310603e-07], ["'transport' (ton kilometer, GLO, None)", 1.519434759453262e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491249635304e-07], ["'surgery use' (unit, GLO, None)", 1.754646618846381e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563485439513e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.326735655172618e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920183841656e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736827112064e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.269477382048857e-07], ["'H200 SU' (unit, GLO, None)", 1.140209690528609e-07], ["'autoclave' (unit, GLO, None)", 5.889486449928275e-08], ["'transport' (ton kilometer, GLO, None)", 6.2151234599739596e-09], ["'marginal heating grid' (megajoule, GLO, None)", -5.142042346438346e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.328082204829395e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6892382528521268e-08], ["'scalpel' (unit, GLO, None)", 1.490714927398e-07], ["'surgery use' (unit, GLO, None)", 1.754646618846381e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774318637892], ["'SUD manufacturing' (unit, GLO, None)", 0.05167452927221255], ["'SUD raw materials' (unit, GLO, None)", 0.02615081596333904], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001567871347], ["'marginal heating grid' (megajoule, GLO, None)", -0.0067534431941262945], ["'transport' (ton kilometer, GLO, None)", 0.0012339467095187186], ["'eol SUD' (kilogram, GLO, None)", 0.0012880153035924847], ["'surgery use' (unit, GLO, None)", 0.0002378859566634104], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689634106699467]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002632041000732924], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270274494674], ["'MUD raw materials' (unit, GLO, None)", 0.0001319971310831119], ["'mechanical disinfection' (unit, GLO, None)", 0.0017683179985742347], ["'H200 SU' (unit, GLO, None)", 0.012943230977289805], ["'autoclave' (unit, GLO, None)", 0.0005692586026478396], ["'transport' (ton kilometer, GLO, None)", 0.0005047357969780186], ["'marginal heating grid' (megajoule, GLO, None)", -0.0015339104504961953], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005550152614645269], ["'eol MUD' (kilogram, GLO, None)", 4.48025832017628e-05], ["'scalpel' (unit, GLO, None)", 0.001563766591130579], ["'surgery use' (unit, GLO, None)", 0.0002378859566634104]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_consq/data_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_case2_consq_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404825607005], ["'SUD manufacturing' (unit, GLO, None)", 0.0173827025829531], ["'SUD raw materials' (unit, GLO, None)", 0.001022410068798546], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564327681536], ["'marginal heating grid' (megajoule, GLO, None)", -0.00027731229226874414], ["'transport' (ton kilometer, GLO, None)", 1.143209445079056e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621997821742193e-05], ["'surgery use' (unit, GLO, None)", 3.708647408185761e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723213437417e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005217443275300898], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.5850362222512724e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349907885e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002639561139093494], ["'H200 SU' (unit, GLO, None)", 6.99457121664817e-05], ["'autoclave' (unit, GLO, None)", 0.00014499112333179], ["'transport' (ton kilometer, GLO, None)", 4.67620461988859e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.298597780937035e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.137710959597062e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002874718944e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982769725432], ["'surgery use' (unit, GLO, None)", 3.708647408185761e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263468585909], ["'SUD manufacturing' (unit, GLO, None)", 0.9034429189840077], ["'SUD raw materials' (unit, GLO, None)", 0.1671249427400933], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561049237248], ["'marginal heating grid' (megajoule, GLO, None)", -0.08053530581110499], ["'transport' (ton kilometer, GLO, None)", 0.009201302593578894], ["'eol SUD' (kilogram, GLO, None)", 0.4228759518282819], ["'surgery use' (unit, GLO, None)", 0.003338416584266691], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001757551702517957]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04458917523625558], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247528878024], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764882866745], ["'mechanical disinfection' (unit, GLO, None)", 0.025475885352399013], ["'H200 SU' (unit, GLO, None)", 0.08966346607408952], ["'autoclave' (unit, GLO, None)", 0.012824590004895471], ["'transport' (ton kilometer, GLO, None)", 0.0037637174782186172], ["'marginal heating grid' (megajoule, GLO, None)", -0.01829199471537759], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006777009610680258], ["'eol MUD' (kilogram, GLO, None)", 0.014549819734271373], ["'scalpel' (unit, GLO, None)", 0.01855843273234735], ["'surgery use' (unit, GLO, None)", 0.003338416584266691]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381563954548322], ["'SUD manufacturing' (unit, GLO, None)", 0.6378164083258063], ["'SUD raw materials' (unit, GLO, None)", 0.02542561168140022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308772008087], ["'marginal heating grid' (megajoule, GLO, None)", -0.009968264893405632], ["'transport' (ton kilometer, GLO, None)", 0.00025509249097094034], ["'eol SUD' (kilogram, GLO, None)", 0.03522084806691643], ["'surgery use' (unit, GLO, None)", 0.002499280145722626], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025046061979921e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514845799977498], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00036086994163396665], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795382563484], ["'mechanical disinfection' (unit, GLO, None)", 0.015926458322958578], ["'H200 SU' (unit, GLO, None)", 0.0018504080234601314], ["'autoclave' (unit, GLO, None)", 0.00560573087087693], ["'transport' (ton kilometer, GLO, None)", 0.00010434349452866093], ["'marginal heating grid' (megajoule, GLO, None)", -0.002264093330437407], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003315488879091709], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866119942085], ["'scalpel' (unit, GLO, None)", 0.01098912015162067], ["'surgery use' (unit, GLO, None)", 0.002499280145722626]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095403591744], ["'SUD manufacturing' (unit, GLO, None)", 0.86012346459264], ["'SUD raw materials' (unit, GLO, None)", 0.03525272090567552], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835170707635], ["'marginal heating grid' (megajoule, GLO, None)", -0.012605886788799016], ["'transport' (ton kilometer, GLO, None)", 0.0004315874663551458], ["'eol SUD' (kilogram, GLO, None)", 0.048441713196777605], ["'surgery use' (unit, GLO, None)", 0.003047335028869901], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172273683405e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0306153911515743], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00048401224499754095], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328831689], ["'mechanical disinfection' (unit, GLO, None)", 0.019365958189360048], ["'H200 SU' (unit, GLO, None)", 0.0029301925336839975], ["'autoclave' (unit, GLO, None)", 0.00662551812859763], ["'transport' (ton kilometer, GLO, None)", 0.0001765373189264003], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028631767421880725], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004093302061533723], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455228291854], ["'scalpel' (unit, GLO, None)", 0.0152443302101365], ["'surgery use' (unit, GLO, None)", 0.003047335028869901]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765496908068697], ["'SUD manufacturing' (unit, GLO, None)", 141.2544907666617], ["'SUD raw materials' (unit, GLO, None)", 7.355646502552362], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836332732063], ["'marginal heating grid' (megajoule, GLO, None)", -0.9344653582382002], ["'transport' (ton kilometer, GLO, None)", 0.17727459810916638], ["'eol SUD' (kilogram, GLO, None)", 0.9425449839516342], ["'surgery use' (unit, GLO, None)", 0.1585703924066002], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836986155399034]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317247019162929], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509082546438], ["'MUD raw materials' (unit, GLO, None)", 0.0593365436304546], ["'mechanical disinfection' (unit, GLO, None)", 1.0702687037657819], ["'H200 SU' (unit, GLO, None)", 0.14770111826055726], ["'autoclave' (unit, GLO, None)", 0.5132928079877958], ["'transport' (ton kilometer, GLO, None)", 0.07251272268920515], ["'marginal heating grid' (megajoule, GLO, None)", -0.21224524104606557], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.20777494059099727], ["'eol MUD' (kilogram, GLO, None)", 0.03487713441945145], ["'scalpel' (unit, GLO, None)", 3.264321952544929], ["'surgery use' (unit, GLO, None)", 0.1585703924066002]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640033415154], ["'SUD manufacturing' (unit, GLO, None)", 0.2576648738266425], ["'SUD raw materials' (unit, GLO, None)", 0.06922828452475037], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315169534866], ["'marginal heating grid' (megajoule, GLO, None)", -0.021407498094846485], ["'transport' (ton kilometer, GLO, None)", 0.0029295109107642043], ["'eol SUD' (kilogram, GLO, None)", 0.0035731893970664115], ["'surgery use' (unit, GLO, None)", 0.0007670949881754312], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173962944639553]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01122870855902125], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392648363301], ["'MUD raw materials' (unit, GLO, None)", 0.000238809708095001], ["'mechanical disinfection' (unit, GLO, None)", 0.0062063301462092465], ["'H200 SU' (unit, GLO, None)", 0.0318405845660348], ["'autoclave' (unit, GLO, None)", 0.0033200425214012785], ["'transport' (ton kilometer, GLO, None)", 0.0011982924488506375], ["'marginal heating grid' (megajoule, GLO, None)", -0.004862287888231897], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0016706138116069085], ["'eol MUD' (kilogram, GLO, None)", 0.00013301272186712806], ["'scalpel' (unit, GLO, None)", 0.004552448384717302], ["'surgery use' (unit, GLO, None)", 0.0007670949881754312]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991178183853105e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001260926036332069], ["'SUD raw materials' (unit, GLO, None)", 5.755860548260059e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198558484102e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.0495129483301714e-05], ["'transport' (ton kilometer, GLO, None)", 9.220203974220798e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772998146813772e-06], ["'surgery use' (unit, GLO, None)", 1.458626211946174e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782152676701e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.114180009745653e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.698054197298967e-06], ["'MUD raw materials' (unit, GLO, None)", 2.2444438214417e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.434050330961887e-05], ["'H200 SU' (unit, GLO, None)", 3.4118885755924873e-06], ["'autoclave' (unit, GLO, None)", -4.572923056344353e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448933190443e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.926362813616994e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7312851096208625e-06], ["'eol MUD' (kilogram, GLO, None)", 3.5538437615394484e-07], ["'scalpel' (unit, GLO, None)", 1.910487327829949e-05], ["'surgery use' (unit, GLO, None)", 1.458626211946174e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159357467541e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.362399742423872e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098933115707e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268765580018e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.6852425183435473e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754494301156e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353625983757e-06], ["'surgery use' (unit, GLO, None)", 1.286843307254647e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926441474396e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299748004719524e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581878846381e-07], ["'MUD raw materials' (unit, GLO, None)", 2.940230558358871e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.861473893385694e-05], ["'H200 SU' (unit, GLO, None)", 6.99996404606333e-07], ["'autoclave' (unit, GLO, None)", 3.3262918337207535e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860222660996e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.098994901721035e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9180020361467773e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287930879506e-08], ["'scalpel' (unit, GLO, None)", 6.950377643947369e-07], ["'surgery use' (unit, GLO, None)", 1.286843307254647e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00203702357961185], ["'SUD manufacturing' (unit, GLO, None)", 0.1508039971346109], ["'SUD raw materials' (unit, GLO, None)", 0.01405179600849487], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00448217305115698], ["'marginal heating grid' (megajoule, GLO, None)", -0.0031313784660515847], ["'transport' (ton kilometer, GLO, None)", 0.0001223815687033541], ["'eol SUD' (kilogram, GLO, None)", 0.00789317477068353], ["'surgery use' (unit, GLO, None)", 0.0005170129623434573], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574876217006623e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004702794301355635], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004168914106870573], ["'MUD raw materials' (unit, GLO, None)", 8.878766851042657e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.003257620073240281], ["'H200 SU' (unit, GLO, None)", 0.000768506558099066], ["'autoclave' (unit, GLO, None)", 0.0006790549036209405], ["'transport' (ton kilometer, GLO, None)", 5.005917851914375e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000711230407285106], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010180366215019243], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426371119705], ["'scalpel' (unit, GLO, None)", 0.005047138254191204], ["'surgery use' (unit, GLO, None)", 0.0005170129623434573]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0501295709129968], ["'SUD manufacturing' (unit, GLO, None)", 15.69234267844423], ["'SUD raw materials' (unit, GLO, None)", 0.3317613450637821], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14533510588009363], ["'marginal heating grid' (megajoule, GLO, None)", -0.1287197267011156], ["'transport' (ton kilometer, GLO, None)", 0.007777795349487369], ["'eol SUD' (kilogram, GLO, None)", 0.5678474463437756], ["'surgery use' (unit, GLO, None)", 0.01972150726323513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003533811507768015]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222791351432203], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.008686484404592722], ["'MUD raw materials' (unit, GLO, None)", 0.006597698291686547], ["'mechanical disinfection' (unit, GLO, None)", 0.13370648596982715], ["'H200 SU' (unit, GLO, None)", 0.032304007376548], ["'autoclave' (unit, GLO, None)", 0.028737936402010476], ["'transport' (ton kilometer, GLO, None)", 0.0031814434968480956], ["'marginal heating grid' (megajoule, GLO, None)", -0.029236128637845027], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03300998388217142], ["'eol MUD' (kilogram, GLO, None)", 0.010057099006487052], ["'scalpel' (unit, GLO, None)", 0.1364140599415152], ["'surgery use' (unit, GLO, None)", 0.01972150726323513]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002717600485803007], ["'SUD manufacturing' (unit, GLO, None)", 0.05956484689813305], ["'SUD raw materials' (unit, GLO, None)", 0.002150464180837887], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.467296359053567e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012287559722618779], ["'transport' (ton kilometer, GLO, None)", 3.9977860834357675e-05], ["'eol SUD' (kilogram, GLO, None)", -0.0002213227853337028], ["'surgery use' (unit, GLO, None)", 1.608536582540563e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538538803569e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001052736334235308], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547209249475], ["'MUD raw materials' (unit, GLO, None)", -2.301735616514961e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509265631792941], ["'H200 SU' (unit, GLO, None)", 7.122135469633478e-05], ["'autoclave' (unit, GLO, None)", 0.00030814663148315806], ["'transport' (ton kilometer, GLO, None)", 1.6352616603334552e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.002790875073327611], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6960481155813966e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900176407687e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478364127617], ["'surgery use' (unit, GLO, None)", 1.608536582540563e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01906269397959025], ["'SUD manufacturing' (unit, GLO, None)", 0.1463152292404379], ["'SUD raw materials' (unit, GLO, None)", 0.001500135223476624], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14706200591103682], ["'marginal heating grid' (megajoule, GLO, None)", -0.06322557700601357], ["'transport' (ton kilometer, GLO, None)", 0.0003808728136179652], ["'eol SUD' (kilogram, GLO, None)", 0.000810108655235407], ["'surgery use' (unit, GLO, None)", 0.01315159284653725], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002951802625094157]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476675264331839], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409589790689958], ["'MUD raw materials' (unit, GLO, None)", 4.80424510731086e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0882141693044515], ["'H200 SU' (unit, GLO, None)", -0.015098601021490448], ["'autoclave' (unit, GLO, None)", 0.04423497045492578], ["'transport' (ton kilometer, GLO, None)", 0.00015579290551672543], ["'marginal heating grid' (megajoule, GLO, None)", -0.01436043371069222], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03340221493909573], ["'eol MUD' (kilogram, GLO, None)", 2.9114535160267923e-05], ["'scalpel' (unit, GLO, None)", 0.0008428024710126215], ["'surgery use' (unit, GLO, None)", 0.01315159284653725]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023719392437e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907673156051746], ["'SUD raw materials' (unit, GLO, None)", 0.006047829506984387], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038763119316006855], ["'marginal heating grid' (megajoule, GLO, None)", -2.6144336517968306e-05], ["'transport' (ton kilometer, GLO, None)", 3.9815343453328566e-05], ["'eol SUD' (kilogram, GLO, None)", -2.805095795634685e-05], ["'surgery use' (unit, GLO, None)", 2.294986809444041e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.97850765797933e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378642288606472e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809677794044904e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085846189683], ["'mechanical disinfection' (unit, GLO, None)", 6.447757409324947e-05], ["'H200 SU' (unit, GLO, None)", 4.1493409838388023e-05], ["'autoclave' (unit, GLO, None)", 8.157493078032804e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614019944795e-05], ["'marginal heating grid' (megajoule, GLO, None)", -5.938166628998958e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.804272966916626e-05], ["'eol MUD' (kilogram, GLO, None)", 2.059380056886979e-06], ["'scalpel' (unit, GLO, None)", 0.002545299619575384], ["'surgery use' (unit, GLO, None)", 2.294986809444041e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803601702953e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.646685956573643e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006738070163e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924444850766e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.232561221677477e-08], ["'transport' (ton kilometer, GLO, None)", 4.101500201269527e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213698524894e-08], ["'surgery use' (unit, GLO, None)", 1.286921458194122e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633919737751e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.058665818198341e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.425351740670821e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842785815755e-09], ["'mechanical disinfection' (unit, GLO, None)", 6.030513832472544e-08], ["'H200 SU' (unit, GLO, None)", -9.38554615591311e-09], ["'autoclave' (unit, GLO, None)", -4.595357018272936e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850709385307e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.0969928576720867e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.207060506953832e-08], ["'eol MUD' (kilogram, GLO, None)", 2.14474508075573e-09], ["'scalpel' (unit, GLO, None)", 5.765542920008924e-09], ["'surgery use' (unit, GLO, None)", 1.286921458194122e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506505317199], ["'SUD manufacturing' (unit, GLO, None)", 0.005774540605208774], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913485568983], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834678497002], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001733797689703679], ["'transport' (ton kilometer, GLO, None)", 7.0465923311757625e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581643389228624e-05], ["'surgery use' (unit, GLO, None)", 1.29317470710072e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407842816066e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001967723417835494], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291489590684e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836729582777e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.737320187260185e-05], ["'H200 SU' (unit, GLO, None)", 3.228963161830622e-05], ["'autoclave' (unit, GLO, None)", 6.015036414478234e-05], ["'transport' (ton kilometer, GLO, None)", 2.8823508898876306e-06], ["'marginal heating grid' (megajoule, GLO, None)", -3.9379769975642724e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5170187334082994e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668333199494e-06], ["'scalpel' (unit, GLO, None)", 0.0001336462469921406], ["'surgery use' (unit, GLO, None)", 1.29317470710072e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001666038407561266], ["'SUD manufacturing' (unit, GLO, None)", 0.004776580387474162], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160843285018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036692970914754293], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003401918410446468], ["'transport' (ton kilometer, GLO, None)", 1.4617259137023953e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404059952679363e-05], ["'surgery use' (unit, GLO, None)", 3.492260898640712e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.1904543070886215e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003871030265931541], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987092444918e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136504126601e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422380228272643], ["'H200 SU' (unit, GLO, None)", 5.392324300008643e-05], ["'autoclave' (unit, GLO, None)", 0.0001033374620449336], ["'transport' (ton kilometer, GLO, None)", 5.979070152095648e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.726781808215588e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.334079857376876e-05], ["'eol MUD' (kilogram, GLO, None)", 3.060652040570723e-06], ["'scalpel' (unit, GLO, None)", 6.607934797160176e-05], ["'surgery use' (unit, GLO, None)", 3.492260898640712e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416616541176], ["'SUD manufacturing' (unit, GLO, None)", 0.004907980500752537], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382340054113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000374987073398557], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003516438246222199], ["'transport' (ton kilometer, GLO, None)", 1.6594221626226944e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355531350328e-05], ["'surgery use' (unit, GLO, None)", 3.572137894878646e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437096979225e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000395867405193608], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242065484017e-05], ["'MUD raw materials' (unit, GLO, None)", 9.384464134013968e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968690981469753], ["'H200 SU' (unit, GLO, None)", 6.025134526857427e-05], ["'autoclave' (unit, GLO, None)", 0.00010550887709414691], ["'transport' (ton kilometer, GLO, None)", 6.787730469341205e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.986890863457635e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.517086889606374e-05], ["'eol MUD' (kilogram, GLO, None)", 3.120594843126595e-06], ["'scalpel' (unit, GLO, None)", 6.891289983806622e-05], ["'surgery use' (unit, GLO, None)", 3.572137894878646e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805794807718], ["'SUD manufacturing' (unit, GLO, None)", 0.006288120741945967], ["'SUD raw materials' (unit, GLO, None)", 0.001892874628517919], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395280356175], ["'marginal heating grid' (megajoule, GLO, None)", -0.0010988812349843199], ["'transport' (ton kilometer, GLO, None)", 1.3643310316075566e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350826824143], ["'surgery use' (unit, GLO, None)", 3.101371714118827e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701469652979e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004538639736178146], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728430864535], ["'MUD raw materials' (unit, GLO, None)", -1.660040584415944e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148699575737986], ["'H200 SU' (unit, GLO, None)", 0.00025512785859903276], ["'autoclave' (unit, GLO, None)", 0.00014555049069739105], ["'transport' (ton kilometer, GLO, None)", 5.58068436236497e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002495890409891396], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.413844890202308e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770173684228e-05], ["'scalpel' (unit, GLO, None)", -1.265926855105754e-05], ["'surgery use' (unit, GLO, None)", 3.101371714118827e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.3588862185360286e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.113666212117138e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309205106672e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5330395401541264e-09], ["'marginal heating grid' (megajoule, GLO, None)", -9.296356731497893e-10], ["'transport' (ton kilometer, GLO, None)", 3.657523558121356e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626264063020164e-09], ["'surgery use' (unit, GLO, None)", 1.432707416654345e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493747099878e-11]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.65060282450216e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359454309301e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420628846116e-12], ["'mechanical disinfection' (unit, GLO, None)", 9.753611916138248e-10], ["'H200 SU' (unit, GLO, None)", 1.4540604937657633e-10], ["'autoclave' (unit, GLO, None)", 4.799270761230874e-10], ["'transport' (ton kilometer, GLO, None)", 1.496080060697513e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.111482740298682e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.481994952614582e-10], ["'eol MUD' (kilogram, GLO, None)", 4.3112602854158303e-11], ["'scalpel' (unit, GLO, None)", 2.017326805728787e-10], ["'surgery use' (unit, GLO, None)", 1.432707416654345e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.479170253294012e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.56086436444413e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183355624784e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275418924919e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.2639190493310603e-07], ["'transport' (ton kilometer, GLO, None)", 1.519434759453262e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491249635304e-07], ["'surgery use' (unit, GLO, None)", 1.754646618846381e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563485439513e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.326735655172618e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920183841656e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736827112064e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.269477382048857e-07], ["'H200 SU' (unit, GLO, None)", 1.140209690528609e-07], ["'autoclave' (unit, GLO, None)", 5.889486449928275e-08], ["'transport' (ton kilometer, GLO, None)", 6.2151234599739596e-09], ["'marginal heating grid' (megajoule, GLO, None)", -5.142042346438346e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.328082204829395e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6892382528521268e-08], ["'scalpel' (unit, GLO, None)", 1.490714927398e-07], ["'surgery use' (unit, GLO, None)", 1.754646618846381e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774318637892], ["'SUD manufacturing' (unit, GLO, None)", 0.05167452927221255], ["'SUD raw materials' (unit, GLO, None)", 0.02615081596333904], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001567871347], ["'marginal heating grid' (megajoule, GLO, None)", -0.0067534431941262945], ["'transport' (ton kilometer, GLO, None)", 0.0012339467095187186], ["'eol SUD' (kilogram, GLO, None)", 0.0012880153035924847], ["'surgery use' (unit, GLO, None)", 0.0002378859566634104], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689634106699467]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002632041000732924], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270274494674], ["'MUD raw materials' (unit, GLO, None)", 0.0001319971310831119], ["'mechanical disinfection' (unit, GLO, None)", 0.0017683179985742347], ["'H200 SU' (unit, GLO, None)", 0.012943230977289805], ["'autoclave' (unit, GLO, None)", 0.0005692586026478396], ["'transport' (ton kilometer, GLO, None)", 0.0005047357969780186], ["'marginal heating grid' (megajoule, GLO, None)", -0.0015339104504961953], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005550152614645269], ["'eol MUD' (kilogram, GLO, None)", 4.48025832017628e-05], ["'scalpel' (unit, GLO, None)", 0.001563766591130579], ["'surgery use' (unit, GLO, None)", 0.0002378859566634104]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404669519852], ["'SUD manufacturing' (unit, GLO, None)", 0.01738270258780469], ["'SUD raw materials' (unit, GLO, None)", 0.001022410063651707], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00031425643413270055], ["'marginal heating grid' (megajoule, GLO, None)", -0.00030097140336885663], ["'transport' (ton kilometer, GLO, None)", 1.1432094544229243e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621994796120875e-05], ["'surgery use' (unit, GLO, None)", 3.708647535825162e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723147773664e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005217443763073978], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.5850361928000384e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349656474e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002639561428708625], ["'H200 SU' (unit, GLO, None)", 6.622154585908565e-05], ["'autoclave' (unit, GLO, None)", 0.00014499113802990776], ["'transport' (ton kilometer, GLO, None)", 4.676204658108918e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.835967485882159e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.137710990590037e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002862289007e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982772875271], ["'surgery use' (unit, GLO, None)", 3.708647535825162e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263445762559], ["'SUD manufacturing' (unit, GLO, None)", 0.903442921193654], ["'SUD raw materials' (unit, GLO, None)", 0.1671249425953577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561328877236], ["'marginal heating grid' (megajoule, GLO, None)", -0.06332778862054059], ["'transport' (ton kilometer, GLO, None)", 0.00920130260254512], ["'eol SUD' (kilogram, GLO, None)", 0.4228759528794584], ["'surgery use' (unit, GLO, None)", 0.003338416856450487], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516711731021]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04458917999026743], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247509125642], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764912957512], ["'mechanical disinfection' (unit, GLO, None)", 0.025475888498325282], ["'H200 SU' (unit, GLO, None)", 0.09237208958707463], ["'autoclave' (unit, GLO, None)", 0.012824591292243394], ["'transport' (ton kilometer, GLO, None)", 0.0037637174818861783], ["'marginal heating grid' (megajoule, GLO, None)", -0.014383649048287926], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006777009674194929], ["'eol MUD' (kilogram, GLO, None)", 0.014549819725265634], ["'scalpel' (unit, GLO, None)", 0.01855843284645929], ["'surgery use' (unit, GLO, None)", 0.003338416856450487]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381563548252459], ["'SUD manufacturing' (unit, GLO, None)", 0.6378164088935513], ["'SUD raw materials' (unit, GLO, None)", 0.02542561155381822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308799416585], ["'marginal heating grid' (megajoule, GLO, None)", -0.01070395699886819], ["'transport' (ton kilometer, GLO, None)", 0.00025509249149757994], ["'eol SUD' (kilogram, GLO, None)", 0.035220848133793475], ["'surgery use' (unit, GLO, None)", 0.002499280184028452], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045825540442e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514845929174458], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00036086993699388975], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383156719], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459152192554], ["'H200 SU' (unit, GLO, None)", 0.0017346032345677135], ["'autoclave' (unit, GLO, None)", 0.005605731225063759], ["'transport' (ton kilometer, GLO, None)", 0.00010434349474407855], ["'marginal heating grid' (megajoule, GLO, None)", -0.002431191176155285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0033154888853170043], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866118975266], ["'scalpel' (unit, GLO, None)", 0.01098912015596749], ["'surgery use' (unit, GLO, None)", 0.002499280184028452]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549094840600858], ["'SUD manufacturing' (unit, GLO, None)", 0.8601234653378073], ["'SUD raw materials' (unit, GLO, None)", 0.03525272072831435], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835204215745], ["'marginal heating grid' (megajoule, GLO, None)", -0.013484790438634896], ["'transport' (ton kilometer, GLO, None)", 0.00043158746709451865], ["'eol SUD' (kilogram, GLO, None)", 0.048441713271229224], ["'surgery use' (unit, GLO, None)", 0.003047335080248404], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.60517194531076e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061539291569893], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122380448623], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328862234], ["'mechanical disinfection' (unit, GLO, None)", 0.01936595931603554], ["'H200 SU' (unit, GLO, None)", 0.0027918449308143426], ["'autoclave' (unit, GLO, None)", 0.006625518614328807], ["'transport' (ton kilometer, GLO, None)", 0.00017653731922883474], ["'marginal heating grid' (megajoule, GLO, None)", -0.0030628022450182512], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004093302069144424], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226603686], ["'scalpel' (unit, GLO, None)", 0.01524433021484075], ["'surgery use' (unit, GLO, None)", 0.003047335080248404]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765495879874525], ["'SUD manufacturing' (unit, GLO, None)", 141.2544908087713], ["'SUD raw materials' (unit, GLO, None)", 7.355646459751087], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.914783629858373], ["'marginal heating grid' (megajoule, GLO, None)", -0.9805227374999915], ["'transport' (ton kilometer, GLO, None)", 0.17727459831049677], ["'eol SUD' (kilogram, GLO, None)", 0.9425449736878801], ["'surgery use' (unit, GLO, None)", 0.1585704011044015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985415462701]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.31724735562381], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276508900159471], ["'MUD raw materials' (unit, GLO, None)", 0.05933654356898306], ["'mechanical disinfection' (unit, GLO, None)", 1.0702689080294812], ["'H200 SU' (unit, GLO, None)", 0.14045125883551268], ["'autoclave' (unit, GLO, None)", 0.5132929054273828], ["'transport' (ton kilometer, GLO, None)", 0.07251272277155771], ["'marginal heating grid' (megajoule, GLO, None)", -0.222706259720743], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.20777493981538567], ["'eol MUD' (kilogram, GLO, None)", 0.03487713422577664], ["'scalpel' (unit, GLO, None)", 3.264321951175925], ["'surgery use' (unit, GLO, None)", 0.1585704011044015]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640028343989], ["'SUD manufacturing' (unit, GLO, None)", 0.2576648745706042], ["'SUD raw materials' (unit, GLO, None)", 0.06922828454737817], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315247405485], ["'marginal heating grid' (megajoule, GLO, None)", -0.015196613064488024], ["'transport' (ton kilometer, GLO, None)", 0.002929510913524079], ["'eol SUD' (kilogram, GLO, None)", 0.0035731899027255307], ["'surgery use' (unit, GLO, None)", 0.000767095082127805], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173961749684746]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01122870973363907], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00947839264554525], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097094031956], ["'mechanical disinfection' (unit, GLO, None)", 0.006206330934634328], ["'H200 SU' (unit, GLO, None)", 0.03281823581896435], ["'autoclave' (unit, GLO, None)", 0.00332004282831682], ["'transport' (ton kilometer, GLO, None)", 0.0011982924499795418], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034516087456008997], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001670613829293674], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271692963272], ["'scalpel' (unit, GLO, None)", 0.004552448421580246], ["'surgery use' (unit, GLO, None)", 0.000767095082127805]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.099117801841289e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001260926036785838], ["'SUD raw materials' (unit, GLO, None)", 5.755860506774024e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198571954858e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.06984615376683e-05], ["'transport' (ton kilometer, GLO, None)", 9.22020396609004e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772997505761783e-06], ["'surgery use' (unit, GLO, None)", 1.45862619849801e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.42478221185087e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.114180250967016e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.698054167632096e-06], ["'MUD raw materials' (unit, GLO, None)", 2.24444380846596e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.4340504885533023e-05], ["'H200 SU' (unit, GLO, None)", 3.379882302229985e-06], ["'autoclave' (unit, GLO, None)", -4.572922333184334e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448929864623e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.972545650156589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7312851126804773e-06], ["'eol MUD' (kilogram, GLO, None)", 3.553843859421154e-07], ["'scalpel' (unit, GLO, None)", 1.910487328077685e-05], ["'surgery use' (unit, GLO, None)", 1.45862619849801e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.7271593495437825e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.362399745929378e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098921521596e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268963813043e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.716098813604408e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754495831441e-07], ["'eol SUD' (kilogram, GLO, None)", 2.259935353394442e-06], ["'surgery use' (unit, GLO, None)", 1.286843350845702e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926441665208e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299748018844644e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581866707607e-07], ["'MUD raw materials' (unit, GLO, None)", 2.940230558942118e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.8614739031863436e-05], ["'H200 SU' (unit, GLO, None)", 6.951393340889945e-07], ["'autoclave' (unit, GLO, None)", 3.326291837274885e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860228920499e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.169078846167915e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.918002081171473e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287967573445e-08], ["'scalpel' (unit, GLO, None)", 6.950377671923915e-07], ["'surgery use' (unit, GLO, None)", 1.286843350845702e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002037023565266845], ["'SUD manufacturing' (unit, GLO, None)", 0.1508039976231396], ["'SUD raw materials' (unit, GLO, None)", 0.01405179598772805], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173086273789], ["'marginal heating grid' (megajoule, GLO, None)", -0.0033577862046401635], ["'transport' (ton kilometer, GLO, None)", 0.00012238156931949107], ["'eol SUD' (kilogram, GLO, None)", 0.007893174957570871], ["'surgery use' (unit, GLO, None)", 0.0005170130009465293], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875807186161e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004702795005532369], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004168914104964584], ["'MUD raw materials' (unit, GLO, None)", 8.878766898386977e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.003257620536564306], ["'H200 SU' (unit, GLO, None)", 0.000732867860641922], ["'autoclave' (unit, GLO, None)", 0.0006790550882492516], ["'transport' (ton kilometer, GLO, None)", 5.005917877116954e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000762654427049762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010180366294780105], ["'eol MUD' (kilogram, GLO, None)", 0.00012864263621873743], ["'scalpel' (unit, GLO, None)", 0.005047138265407886], ["'surgery use' (unit, GLO, None)", 0.0005170130009465293]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012956978649899], ["'SUD manufacturing' (unit, GLO, None)", 15.69234268474636], ["'SUD raw materials' (unit, GLO, None)", 0.331761340909242], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351060351463], ["'marginal heating grid' (megajoule, GLO, None)", -0.13822772604893357], ["'transport' (ton kilometer, GLO, None)", 0.007777795365034329], ["'eol SUD' (kilogram, GLO, None)", 0.5678474447663664], ["'surgery use' (unit, GLO, None)", 0.01972150811265594], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114441449226]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222791694634381], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.008686484214381677], ["'MUD raw materials' (unit, GLO, None)", 0.006597698284956393], ["'mechanical disinfection' (unit, GLO, None)", 0.13370650700634137], ["'H200 SU' (unit, GLO, None)", 0.030807360016289476], ["'autoclave' (unit, GLO, None)", 0.02873794620587176], ["'transport' (ton kilometer, GLO, None)", 0.0031814435032074526], ["'marginal heating grid' (megajoule, GLO, None)", -0.03139568179372463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.033009983917388554], ["'eol MUD' (kilogram, GLO, None)", 0.010057098998889229], ["'scalpel' (unit, GLO, None)", 0.136414059858532], ["'surgery use' (unit, GLO, None)", 0.01972150811265594]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027176004865433036], ["'SUD manufacturing' (unit, GLO, None)", 0.05956484689305617], ["'SUD raw materials' (unit, GLO, None)", 0.002150464182706125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.467295888228737e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012251866249629813], ["'transport' (ton kilometer, GLO, None)", 3.9977861037609566e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132275400968626], ["'surgery use' (unit, GLO, None)", 1.60853751329155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538457488738e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001052736414046016], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547210550399], ["'MUD raw materials' (unit, GLO, None)", -2.301735611803668e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266192956568], ["'H200 SU' (unit, GLO, None)", 7.683983323298935e-05], ["'autoclave' (unit, GLO, None)", 0.00030814664655131864], ["'transport' (ton kilometer, GLO, None)", 1.6352616686473072e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027827680100624757], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.696048008642884e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900732437456e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478382205968], ["'surgery use' (unit, GLO, None)", 1.60853751329155e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.019062694332419756], ["'SUD manufacturing' (unit, GLO, None)", 0.146315180471122], ["'SUD raw materials' (unit, GLO, None)", 0.00150013662174899], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14706200564914368], ["'marginal heating grid' (megajoule, GLO, None)", -0.07772599334370867], ["'transport' (ton kilometer, GLO, None)", 0.0003808730147956832], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261129474699], ["'surgery use' (unit, GLO, None)", 0.01315159685357525], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025183679444]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476675264784855], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587964248399], ["'MUD raw materials' (unit, GLO, None)", 4.804244612547479e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.08821417073902622], ["'H200 SU' (unit, GLO, None)", -0.017381108745914673], ["'autoclave' (unit, GLO, None)", 0.04423497348515574], ["'transport' (ton kilometer, GLO, None)", 0.0001557929878068236], ["'marginal heating grid' (megajoule, GLO, None)", -0.01765391520118306], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.033402214879611904], ["'eol MUD' (kilogram, GLO, None)", 2.9114546738039055e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021889898095], ["'surgery use' (unit, GLO, None)", 0.01315159685357525]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023770405301e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907673146117784], ["'SUD raw materials' (unit, GLO, None)", 0.006047829521833958], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003876311979740624], ["'marginal heating grid' (megajoule, GLO, None)", -3.0983677901105704e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534362812424e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050933150156688e-05], ["'surgery use' (unit, GLO, None)", 2.29498591910189e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785079684836388e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378647552724244e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809678517654018e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085847326044], ["'mechanical disinfection' (unit, GLO, None)", 6.447755814391506e-05], ["'H200 SU' (unit, GLO, None)", 4.0731655730301e-05], ["'autoclave' (unit, GLO, None)", 8.15749032891704e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614027094669e-05], ["'marginal heating grid' (megajoule, GLO, None)", -7.037326880701278e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.804273076256939e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593803758658885e-06], ["'scalpel' (unit, GLO, None)", 0.002545299623250796], ["'surgery use' (unit, GLO, None)", 2.29498591910189e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803511619622e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.646685956051646e-07], ["'SUD raw materials' (unit, GLO, None)", 6.89200672663482e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.411992445036182e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.761092707078915e-08], ["'transport' (ton kilometer, GLO, None)", 4.101500205839116e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213694804514e-08], ["'surgery use' (unit, GLO, None)", 1.286921466738367e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338715672173e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.058667598847535e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.425351726490207e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842786240283e-09], ["'mechanical disinfection' (unit, GLO, None)", 6.03051395346565e-08], ["'H200 SU' (unit, GLO, None)", -1.0217503914443176e-08], ["'autoclave' (unit, GLO, None)", -4.5953569686470256e-08], ["'transport' (ton kilometer, GLO, None)", 1.677685072807684e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.217038284215195e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2070605082055595e-08], ["'eol MUD' (kilogram, GLO, None)", 2.144745079958133e-09], ["'scalpel' (unit, GLO, None)", 5.765542953560824e-09], ["'surgery use' (unit, GLO, None)", 1.286921466738367e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506424907907], ["'SUD manufacturing' (unit, GLO, None)", 0.005774540605318444], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913467644604], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001108183473176023], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018019773090350961], ["'transport' (ton kilometer, GLO, None)", 7.046592366713316e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581641467147843e-05], ["'surgery use' (unit, GLO, None)", 1.293174743124385e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1484078368321455e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001967723577822369], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291341125984e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836728729541e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.737321166103546e-05], ["'H200 SU' (unit, GLO, None)", 3.1216419972890924e-05], ["'autoclave' (unit, GLO, None)", 6.015036930571086e-05], ["'transport' (ton kilometer, GLO, None)", 2.882350904423976e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.092833457590872e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5170187455059838e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668570899404e-06], ["'scalpel' (unit, GLO, None)", 0.0001336462471996579], ["'surgery use' (unit, GLO, None)", 1.293174743124385e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00016660383968572943], ["'SUD manufacturing' (unit, GLO, None)", 0.004776580384683438], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160844608188], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003669297107064303], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003562691383063725], ["'transport' (ton kilometer, GLO, None)", 1.4617259236759e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404060066289314e-05], ["'surgery use' (unit, GLO, None)", 3.492261043091522e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454234438165e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387103045693929], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987077475816e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136520109805e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381453379128], ["'H200 SU' (unit, GLO, None)", 5.139252519997207e-05], ["'autoclave' (unit, GLO, None)", 0.00010333746873512744], ["'transport' (ton kilometer, GLO, None)", 5.979070192891452e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.091945674655505e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.334079892783907e-05], ["'eol MUD' (kilogram, GLO, None)", 3.060652007185773e-06], ["'scalpel' (unit, GLO, None)", 6.607934876349919e-05], ["'surgery use' (unit, GLO, None)", 3.492261043091522e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416504033487], ["'SUD manufacturing' (unit, GLO, None)", 0.004907980497795512], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382343203058], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037498707515822363], ["'marginal heating grid' (megajoule, GLO, None)", -0.00036616251697373943], ["'transport' (ton kilometer, GLO, None)", 1.6594221731008087e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355761694633e-05], ["'surgery use' (unit, GLO, None)", 3.572138057138326e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504370051822574e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003958674254878675], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.8052420506591374e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446415306227e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692290529268], ["'H200 SU' (unit, GLO, None)", 5.79659663161034e-05], ["'autoclave' (unit, GLO, None)", 0.00010550888405055969], ["'transport' (ton kilometer, GLO, None)", 6.787730512201074e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.316654115851677e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.517086929573708e-05], ["'eol MUD' (kilogram, GLO, None)", 3.120594798623978e-06], ["'scalpel' (unit, GLO, None)", 6.891290067795417e-05], ["'surgery use' (unit, GLO, None)", 3.572138057138326e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805782545953], ["'SUD manufacturing' (unit, GLO, None)", 0.006288120753949239], ["'SUD raw materials' (unit, GLO, None)", 0.00189287462672439], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395421564807], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005120174088147476], ["'transport' (ton kilometer, GLO, None)", 1.3643310319298859e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350824754575], ["'surgery use' (unit, GLO, None)", 3.101371745463822e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701468174642e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004538639937675486], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728414522621], ["'MUD raw materials' (unit, GLO, None)", -1.660040583214114e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148700994859685], ["'H200 SU' (unit, GLO, None)", 0.000347505703975057], ["'autoclave' (unit, GLO, None)", 0.00014555049549641214], ["'transport' (ton kilometer, GLO, None)", 5.580684363683432e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011629458213256376], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.413844922275046e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770235240194e-05], ["'scalpel' (unit, GLO, None)", -1.265926826667124e-05], ["'surgery use' (unit, GLO, None)", 3.101371745463822e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.358886236082201e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.1136661696354e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309305939206e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5330395391214787e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.0181657266981227e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523742764509e-11], ["'eol SUD' (kilogram, GLO, None)", 1.262626563377977e-09], ["'surgery use' (unit, GLO, None)", 1.432707785993119e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584936403579135e-11]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650602857713619e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359274035388e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420593755497e-12], ["'mechanical disinfection' (unit, GLO, None)", 9.753612250669582e-10], ["'H200 SU' (unit, GLO, None)", 1.3147053061616854e-10], ["'autoclave' (unit, GLO, None)", 4.799271125329557e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801362242827e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.3125611686163792e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.481994950269128e-10], ["'eol MUD' (kilogram, GLO, None)", 4.311260292994323e-11], ["'scalpel' (unit, GLO, None)", 2.017326785537209e-10], ["'surgery use' (unit, GLO, None)", 1.432707785993119e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702430419134e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.56086436964451e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183332831473e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275426435202e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.163436719398642e-07], ["'transport' (ton kilometer, GLO, None)", 1.519434763087369e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491249929666e-07], ["'surgery use' (unit, GLO, None)", 1.754646699124096e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563424389272e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.326735901995271e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0299201682311357e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736829426336e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775364827027e-07], ["'H200 SU' (unit, GLO, None)", 1.1560265402081482e-07], ["'autoclave' (unit, GLO, None)", 5.889487179978526e-08], ["'transport' (ton kilometer, GLO, None)", 6.2151234748389775e-09], ["'marginal heating grid' (megajoule, GLO, None)", -4.913816696879917e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3280822218875115e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6892382530523727e-08], ["'scalpel' (unit, GLO, None)", 1.490714929959585e-07], ["'surgery use' (unit, GLO, None)", 1.754646699124096e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774308749343], ["'SUD manufacturing' (unit, GLO, None)", 0.05167452954126927], ["'SUD raw materials' (unit, GLO, None)", 0.0261508160001776], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001850043324], ["'marginal heating grid' (megajoule, GLO, None)", -0.004559035399578988], ["'transport' (ton kilometer, GLO, None)", 0.001233946710731304], ["'eol SUD' (kilogram, GLO, None)", 0.0012880155534147769], ["'surgery use' (unit, GLO, None)", 0.0002378859964499442], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633586886214]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002632041315251829], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003650527028281328], ["'MUD raw materials' (unit, GLO, None)", 0.0001319971317132933], ["'mechanical disinfection' (unit, GLO, None)", 0.00176831821483986], ["'H200 SU' (unit, GLO, None)", 0.013288651232488242], ["'autoclave' (unit, GLO, None)", 0.0005692586785114955], ["'transport' (ton kilometer, GLO, None)", 0.0005047357974740167], ["'marginal heating grid' (megajoule, GLO, None)", -0.00103549431639234], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005550152678735032], ["'eol MUD' (kilogram, GLO, None)", 4.480258053242371e-05], ["'scalpel' (unit, GLO, None)", 0.001563766606136697], ["'surgery use' (unit, GLO, None)", 0.0002378859964499442]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_consq/data_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_case2_consq_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404669519852], ["'SUD manufacturing' (unit, GLO, None)", 0.01738270258780469], ["'SUD raw materials' (unit, GLO, None)", 0.001022410063651707], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00031425643413270055], ["'marginal heating grid' (megajoule, GLO, None)", -0.00030097140336885663], ["'transport' (ton kilometer, GLO, None)", 1.1432094544229243e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621994796120875e-05], ["'surgery use' (unit, GLO, None)", 3.708647535825162e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723147773664e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005217443763073978], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.5850361928000384e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349656474e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0002639561428708625], ["'H200 SU' (unit, GLO, None)", 6.622154585908565e-05], ["'autoclave' (unit, GLO, None)", 0.00014499113802990776], ["'transport' (ton kilometer, GLO, None)", 4.676204658108918e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.835967485882159e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.137710990590037e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002862289007e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982772875271], ["'surgery use' (unit, GLO, None)", 3.708647535825162e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263445762559], ["'SUD manufacturing' (unit, GLO, None)", 0.903442921193654], ["'SUD raw materials' (unit, GLO, None)", 0.1671249425953577], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561328877236], ["'marginal heating grid' (megajoule, GLO, None)", -0.06332778862054059], ["'transport' (ton kilometer, GLO, None)", 0.00920130260254512], ["'eol SUD' (kilogram, GLO, None)", 0.4228759528794584], ["'surgery use' (unit, GLO, None)", 0.003338416856450487], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516711731021]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04458917999026743], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247509125642], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764912957512], ["'mechanical disinfection' (unit, GLO, None)", 0.025475888498325282], ["'H200 SU' (unit, GLO, None)", 0.09237208958707463], ["'autoclave' (unit, GLO, None)", 0.012824591292243394], ["'transport' (ton kilometer, GLO, None)", 0.0037637174818861783], ["'marginal heating grid' (megajoule, GLO, None)", -0.014383649048287926], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006777009674194929], ["'eol MUD' (kilogram, GLO, None)", 0.014549819725265634], ["'scalpel' (unit, GLO, None)", 0.01855843284645929], ["'surgery use' (unit, GLO, None)", 0.003338416856450487]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381563548252459], ["'SUD manufacturing' (unit, GLO, None)", 0.6378164088935513], ["'SUD raw materials' (unit, GLO, None)", 0.02542561155381822], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308799416585], ["'marginal heating grid' (megajoule, GLO, None)", -0.01070395699886819], ["'transport' (ton kilometer, GLO, None)", 0.00025509249149757994], ["'eol SUD' (kilogram, GLO, None)", 0.035220848133793475], ["'surgery use' (unit, GLO, None)", 0.002499280184028452], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045825540442e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514845929174458], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00036086993699388975], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383156719], ["'mechanical disinfection' (unit, GLO, None)", 0.015926459152192554], ["'H200 SU' (unit, GLO, None)", 0.0017346032345677135], ["'autoclave' (unit, GLO, None)", 0.005605731225063759], ["'transport' (ton kilometer, GLO, None)", 0.00010434349474407855], ["'marginal heating grid' (megajoule, GLO, None)", -0.002431191176155285], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0033154888853170043], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866118975266], ["'scalpel' (unit, GLO, None)", 0.01098912015596749], ["'surgery use' (unit, GLO, None)", 0.002499280184028452]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549094840600858], ["'SUD manufacturing' (unit, GLO, None)", 0.8601234653378073], ["'SUD raw materials' (unit, GLO, None)", 0.03525272072831435], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835204215745], ["'marginal heating grid' (megajoule, GLO, None)", -0.013484790438634896], ["'transport' (ton kilometer, GLO, None)", 0.00043158746709451865], ["'eol SUD' (kilogram, GLO, None)", 0.048441713271229224], ["'surgery use' (unit, GLO, None)", 0.003047335080248404], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.60517194531076e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061539291569893], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122380448623], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328862234], ["'mechanical disinfection' (unit, GLO, None)", 0.01936595931603554], ["'H200 SU' (unit, GLO, None)", 0.0027918449308143426], ["'autoclave' (unit, GLO, None)", 0.006625518614328807], ["'transport' (ton kilometer, GLO, None)", 0.00017653731922883474], ["'marginal heating grid' (megajoule, GLO, None)", -0.0030628022450182512], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004093302069144424], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226603686], ["'scalpel' (unit, GLO, None)", 0.01524433021484075], ["'surgery use' (unit, GLO, None)", 0.003047335080248404]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765495879874525], ["'SUD manufacturing' (unit, GLO, None)", 141.2544908087713], ["'SUD raw materials' (unit, GLO, None)", 7.355646459751087], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.914783629858373], ["'marginal heating grid' (megajoule, GLO, None)", -0.9805227374999915], ["'transport' (ton kilometer, GLO, None)", 0.17727459831049677], ["'eol SUD' (kilogram, GLO, None)", 0.9425449736878801], ["'surgery use' (unit, GLO, None)", 0.1585704011044015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985415462701]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.31724735562381], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276508900159471], ["'MUD raw materials' (unit, GLO, None)", 0.05933654356898306], ["'mechanical disinfection' (unit, GLO, None)", 1.0702689080294812], ["'H200 SU' (unit, GLO, None)", 0.14045125883551268], ["'autoclave' (unit, GLO, None)", 0.5132929054273828], ["'transport' (ton kilometer, GLO, None)", 0.07251272277155771], ["'marginal heating grid' (megajoule, GLO, None)", -0.222706259720743], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.20777493981538567], ["'eol MUD' (kilogram, GLO, None)", 0.03487713422577664], ["'scalpel' (unit, GLO, None)", 3.264321951175925], ["'surgery use' (unit, GLO, None)", 0.1585704011044015]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640028343989], ["'SUD manufacturing' (unit, GLO, None)", 0.2576648745706042], ["'SUD raw materials' (unit, GLO, None)", 0.06922828454737817], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315247405485], ["'marginal heating grid' (megajoule, GLO, None)", -0.015196613064488024], ["'transport' (ton kilometer, GLO, None)", 0.002929510913524079], ["'eol SUD' (kilogram, GLO, None)", 0.0035731899027255307], ["'surgery use' (unit, GLO, None)", 0.000767095082127805], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173961749684746]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01122870973363907], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00947839264554525], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097094031956], ["'mechanical disinfection' (unit, GLO, None)", 0.006206330934634328], ["'H200 SU' (unit, GLO, None)", 0.03281823581896435], ["'autoclave' (unit, GLO, None)", 0.00332004282831682], ["'transport' (ton kilometer, GLO, None)", 0.0011982924499795418], ["'marginal heating grid' (megajoule, GLO, None)", -0.0034516087456008997], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001670613829293674], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271692963272], ["'scalpel' (unit, GLO, None)", 0.004552448421580246], ["'surgery use' (unit, GLO, None)", 0.000767095082127805]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.099117801841289e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001260926036785838], ["'SUD raw materials' (unit, GLO, None)", 5.755860506774024e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198571954858e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.06984615376683e-05], ["'transport' (ton kilometer, GLO, None)", 9.22020396609004e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772997505761783e-06], ["'surgery use' (unit, GLO, None)", 1.45862619849801e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.42478221185087e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.114180250967016e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.698054167632096e-06], ["'MUD raw materials' (unit, GLO, None)", 2.24444380846596e-07], ["'mechanical disinfection' (unit, GLO, None)", 1.4340504885533023e-05], ["'H200 SU' (unit, GLO, None)", 3.379882302229985e-06], ["'autoclave' (unit, GLO, None)", -4.572922333184334e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448929864623e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.972545650156589e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7312851126804773e-06], ["'eol MUD' (kilogram, GLO, None)", 3.553843859421154e-07], ["'scalpel' (unit, GLO, None)", 1.910487328077685e-05], ["'surgery use' (unit, GLO, None)", 1.45862619849801e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.7271593495437825e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.362399745929378e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098921521596e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268963813043e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.716098813604408e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754495831441e-07], ["'eol SUD' (kilogram, GLO, None)", 2.259935353394442e-06], ["'surgery use' (unit, GLO, None)", 1.286843350845702e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926441665208e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299748018844644e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581866707607e-07], ["'MUD raw materials' (unit, GLO, None)", 2.940230558942118e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.8614739031863436e-05], ["'H200 SU' (unit, GLO, None)", 6.951393340889945e-07], ["'autoclave' (unit, GLO, None)", 3.326291837274885e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860228920499e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.169078846167915e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.918002081171473e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287967573445e-08], ["'scalpel' (unit, GLO, None)", 6.950377671923915e-07], ["'surgery use' (unit, GLO, None)", 1.286843350845702e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002037023565266845], ["'SUD manufacturing' (unit, GLO, None)", 0.1508039976231396], ["'SUD raw materials' (unit, GLO, None)", 0.01405179598772805], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173086273789], ["'marginal heating grid' (megajoule, GLO, None)", -0.0033577862046401635], ["'transport' (ton kilometer, GLO, None)", 0.00012238156931949107], ["'eol SUD' (kilogram, GLO, None)", 0.007893174957570871], ["'surgery use' (unit, GLO, None)", 0.0005170130009465293], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875807186161e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004702795005532369], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004168914104964584], ["'MUD raw materials' (unit, GLO, None)", 8.878766898386977e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.003257620536564306], ["'H200 SU' (unit, GLO, None)", 0.000732867860641922], ["'autoclave' (unit, GLO, None)", 0.0006790550882492516], ["'transport' (ton kilometer, GLO, None)", 5.005917877116954e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000762654427049762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010180366294780105], ["'eol MUD' (kilogram, GLO, None)", 0.00012864263621873743], ["'scalpel' (unit, GLO, None)", 0.005047138265407886], ["'surgery use' (unit, GLO, None)", 0.0005170130009465293]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012956978649899], ["'SUD manufacturing' (unit, GLO, None)", 15.69234268474636], ["'SUD raw materials' (unit, GLO, None)", 0.331761340909242], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351060351463], ["'marginal heating grid' (megajoule, GLO, None)", -0.13822772604893357], ["'transport' (ton kilometer, GLO, None)", 0.007777795365034329], ["'eol SUD' (kilogram, GLO, None)", 0.5678474447663664], ["'surgery use' (unit, GLO, None)", 0.01972150811265594], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114441449226]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222791694634381], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.008686484214381677], ["'MUD raw materials' (unit, GLO, None)", 0.006597698284956393], ["'mechanical disinfection' (unit, GLO, None)", 0.13370650700634137], ["'H200 SU' (unit, GLO, None)", 0.030807360016289476], ["'autoclave' (unit, GLO, None)", 0.02873794620587176], ["'transport' (ton kilometer, GLO, None)", 0.0031814435032074526], ["'marginal heating grid' (megajoule, GLO, None)", -0.03139568179372463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.033009983917388554], ["'eol MUD' (kilogram, GLO, None)", 0.010057098998889229], ["'scalpel' (unit, GLO, None)", 0.136414059858532], ["'surgery use' (unit, GLO, None)", 0.01972150811265594]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027176004865433036], ["'SUD manufacturing' (unit, GLO, None)", 0.05956484689305617], ["'SUD raw materials' (unit, GLO, None)", 0.002150464182706125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.467295888228737e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012251866249629813], ["'transport' (ton kilometer, GLO, None)", 3.9977861037609566e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132275400968626], ["'surgery use' (unit, GLO, None)", 1.60853751329155e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538457488738e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001052736414046016], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547210550399], ["'MUD raw materials' (unit, GLO, None)", -2.301735611803668e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0005509266192956568], ["'H200 SU' (unit, GLO, None)", 7.683983323298935e-05], ["'autoclave' (unit, GLO, None)", 0.00030814664655131864], ["'transport' (ton kilometer, GLO, None)", 1.6352616686473072e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027827680100624757], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.696048008642884e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900732437456e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478382205968], ["'surgery use' (unit, GLO, None)", 1.60853751329155e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.019062694332419756], ["'SUD manufacturing' (unit, GLO, None)", 0.146315180471122], ["'SUD raw materials' (unit, GLO, None)", 0.00150013662174899], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14706200564914368], ["'marginal heating grid' (megajoule, GLO, None)", -0.07772599334370867], ["'transport' (ton kilometer, GLO, None)", 0.0003808730147956832], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261129474699], ["'surgery use' (unit, GLO, None)", 0.01315159685357525], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025183679444]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476675264784855], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587964248399], ["'MUD raw materials' (unit, GLO, None)", 4.804244612547479e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.08821417073902622], ["'H200 SU' (unit, GLO, None)", -0.017381108745914673], ["'autoclave' (unit, GLO, None)", 0.04423497348515574], ["'transport' (ton kilometer, GLO, None)", 0.0001557929878068236], ["'marginal heating grid' (megajoule, GLO, None)", -0.01765391520118306], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.033402214879611904], ["'eol MUD' (kilogram, GLO, None)", 2.9114546738039055e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021889898095], ["'surgery use' (unit, GLO, None)", 0.01315159685357525]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023770405301e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907673146117784], ["'SUD raw materials' (unit, GLO, None)", 0.006047829521833958], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003876311979740624], ["'marginal heating grid' (megajoule, GLO, None)", -3.0983677901105704e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534362812424e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050933150156688e-05], ["'surgery use' (unit, GLO, None)", 2.29498591910189e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785079684836388e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378647552724244e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809678517654018e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085847326044], ["'mechanical disinfection' (unit, GLO, None)", 6.447755814391506e-05], ["'H200 SU' (unit, GLO, None)", 4.0731655730301e-05], ["'autoclave' (unit, GLO, None)", 8.15749032891704e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614027094669e-05], ["'marginal heating grid' (megajoule, GLO, None)", -7.037326880701278e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.804273076256939e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593803758658885e-06], ["'scalpel' (unit, GLO, None)", 0.002545299623250796], ["'surgery use' (unit, GLO, None)", 2.29498591910189e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803511619622e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.646685956051646e-07], ["'SUD raw materials' (unit, GLO, None)", 6.89200672663482e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.411992445036182e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.761092707078915e-08], ["'transport' (ton kilometer, GLO, None)", 4.101500205839116e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213694804514e-08], ["'surgery use' (unit, GLO, None)", 1.286921466738367e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338715672173e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.058667598847535e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.425351726490207e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842786240283e-09], ["'mechanical disinfection' (unit, GLO, None)", 6.03051395346565e-08], ["'H200 SU' (unit, GLO, None)", -1.0217503914443176e-08], ["'autoclave' (unit, GLO, None)", -4.5953569686470256e-08], ["'transport' (ton kilometer, GLO, None)", 1.677685072807684e-09], ["'marginal heating grid' (megajoule, GLO, None)", -2.217038284215195e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2070605082055595e-08], ["'eol MUD' (kilogram, GLO, None)", 2.144745079958133e-09], ["'scalpel' (unit, GLO, None)", 5.765542953560824e-09], ["'surgery use' (unit, GLO, None)", 1.286921466738367e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506424907907], ["'SUD manufacturing' (unit, GLO, None)", 0.005774540605318444], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913467644604], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001108183473176023], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018019773090350961], ["'transport' (ton kilometer, GLO, None)", 7.046592366713316e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581641467147843e-05], ["'surgery use' (unit, GLO, None)", 1.293174743124385e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1484078368321455e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001967723577822369], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291341125984e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836728729541e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.737321166103546e-05], ["'H200 SU' (unit, GLO, None)", 3.1216419972890924e-05], ["'autoclave' (unit, GLO, None)", 6.015036930571086e-05], ["'transport' (ton kilometer, GLO, None)", 2.882350904423976e-06], ["'marginal heating grid' (megajoule, GLO, None)", -4.092833457590872e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5170187455059838e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668570899404e-06], ["'scalpel' (unit, GLO, None)", 0.0001336462471996579], ["'surgery use' (unit, GLO, None)", 1.293174743124385e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00016660383968572943], ["'SUD manufacturing' (unit, GLO, None)", 0.004776580384683438], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160844608188], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003669297107064303], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003562691383063725], ["'transport' (ton kilometer, GLO, None)", 1.4617259236759e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404060066289314e-05], ["'surgery use' (unit, GLO, None)", 3.492261043091522e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454234438165e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387103045693929], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987077475816e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136520109805e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023422381453379128], ["'H200 SU' (unit, GLO, None)", 5.139252519997207e-05], ["'autoclave' (unit, GLO, None)", 0.00010333746873512744], ["'transport' (ton kilometer, GLO, None)", 5.979070192891452e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.091945674655505e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.334079892783907e-05], ["'eol MUD' (kilogram, GLO, None)", 3.060652007185773e-06], ["'scalpel' (unit, GLO, None)", 6.607934876349919e-05], ["'surgery use' (unit, GLO, None)", 3.492261043091522e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416504033487], ["'SUD manufacturing' (unit, GLO, None)", 0.004907980497795512], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382343203058], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037498707515822363], ["'marginal heating grid' (megajoule, GLO, None)", -0.00036616251697373943], ["'transport' (ton kilometer, GLO, None)", 1.6594221731008087e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355761694633e-05], ["'surgery use' (unit, GLO, None)", 3.572138057138326e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504370051822574e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003958674254878675], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.8052420506591374e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446415306227e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023968692290529268], ["'H200 SU' (unit, GLO, None)", 5.79659663161034e-05], ["'autoclave' (unit, GLO, None)", 0.00010550888405055969], ["'transport' (ton kilometer, GLO, None)", 6.787730512201074e-06], ["'marginal heating grid' (megajoule, GLO, None)", -8.316654115851677e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.517086929573708e-05], ["'eol MUD' (kilogram, GLO, None)", 3.120594798623978e-06], ["'scalpel' (unit, GLO, None)", 6.891290067795417e-05], ["'surgery use' (unit, GLO, None)", 3.572138057138326e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805782545953], ["'SUD manufacturing' (unit, GLO, None)", 0.006288120753949239], ["'SUD raw materials' (unit, GLO, None)", 0.00189287462672439], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395421564807], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005120174088147476], ["'transport' (ton kilometer, GLO, None)", 1.3643310319298859e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350824754575], ["'surgery use' (unit, GLO, None)", 3.101371745463822e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701468174642e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004538639937675486], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728414522621], ["'MUD raw materials' (unit, GLO, None)", -1.660040583214114e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00025148700994859685], ["'H200 SU' (unit, GLO, None)", 0.000347505703975057], ["'autoclave' (unit, GLO, None)", 0.00014555049549641214], ["'transport' (ton kilometer, GLO, None)", 5.580684363683432e-06], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011629458213256376], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.413844922275046e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770235240194e-05], ["'scalpel' (unit, GLO, None)", -1.265926826667124e-05], ["'surgery use' (unit, GLO, None)", 3.101371745463822e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.358886236082201e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.1136661696354e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309305939206e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5330395391214787e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.0181657266981227e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523742764509e-11], ["'eol SUD' (kilogram, GLO, None)", 1.262626563377977e-09], ["'surgery use' (unit, GLO, None)", 1.432707785993119e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584936403579135e-11]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650602857713619e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359274035388e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420593755497e-12], ["'mechanical disinfection' (unit, GLO, None)", 9.753612250669582e-10], ["'H200 SU' (unit, GLO, None)", 1.3147053061616854e-10], ["'autoclave' (unit, GLO, None)", 4.799271125329557e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801362242827e-11], ["'marginal heating grid' (megajoule, GLO, None)", -2.3125611686163792e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.481994950269128e-10], ["'eol MUD' (kilogram, GLO, None)", 4.311260292994323e-11], ["'scalpel' (unit, GLO, None)", 2.017326785537209e-10], ["'surgery use' (unit, GLO, None)", 1.432707785993119e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702430419134e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.56086436964451e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183332831473e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275426435202e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.163436719398642e-07], ["'transport' (ton kilometer, GLO, None)", 1.519434763087369e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491249929666e-07], ["'surgery use' (unit, GLO, None)", 1.754646699124096e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563424389272e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.326735901995271e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0299201682311357e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736829426336e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2694775364827027e-07], ["'H200 SU' (unit, GLO, None)", 1.1560265402081482e-07], ["'autoclave' (unit, GLO, None)", 5.889487179978526e-08], ["'transport' (ton kilometer, GLO, None)", 6.2151234748389775e-09], ["'marginal heating grid' (megajoule, GLO, None)", -4.913816696879917e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3280822218875115e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6892382530523727e-08], ["'scalpel' (unit, GLO, None)", 1.490714929959585e-07], ["'surgery use' (unit, GLO, None)", 1.754646699124096e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774308749343], ["'SUD manufacturing' (unit, GLO, None)", 0.05167452954126927], ["'SUD raw materials' (unit, GLO, None)", 0.0261508160001776], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001850043324], ["'marginal heating grid' (megajoule, GLO, None)", -0.004559035399578988], ["'transport' (ton kilometer, GLO, None)", 0.001233946710731304], ["'eol SUD' (kilogram, GLO, None)", 0.0012880155534147769], ["'surgery use' (unit, GLO, None)", 0.0002378859964499442], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633586886214]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002632041315251829], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003650527028281328], ["'MUD raw materials' (unit, GLO, None)", 0.0001319971317132933], ["'mechanical disinfection' (unit, GLO, None)", 0.00176831821483986], ["'H200 SU' (unit, GLO, None)", 0.013288651232488242], ["'autoclave' (unit, GLO, None)", 0.0005692586785114955], ["'transport' (ton kilometer, GLO, None)", 0.0005047357974740167], ["'marginal heating grid' (megajoule, GLO, None)", -0.00103549431639234], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005550152678735032], ["'eol MUD' (kilogram, GLO, None)", 4.480258053242371e-05], ["'scalpel' (unit, GLO, None)", 0.001563766606136697], ["'surgery use' (unit, GLO, None)", 0.0002378859964499442]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001743240477307964], ["'SUD manufacturing' (unit, GLO, None)", 0.0172355348041119], ["'SUD raw materials' (unit, GLO, None)", 0.001022410068963112], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564331490967], ["'marginal heating grid' (megajoule, DK, None)", -0.0003009715454775589], ["'transport' (ton kilometer, GLO, None)", 1.1432094580629275e-05], ["'eol SUD' (kilogram, GLO, None)", 5.762199458242302e-05], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.7337231604869874e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302470066619], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.585036208369033e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349667739e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00026395610067300864], ["'H200 SU' (unit, GLO, None)", 6.616809857590507e-05], ["'autoclave' (unit, DK, None)", 0.0001449911849247265], ["'transport' (ton kilometer, GLO, None)", 4.676204672998054e-06], ["'marginal heating grid' (megajoule, DK, None)", -6.835970713599002e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.137710968249427e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002898383317e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982775540133], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263463255905], ["'SUD manufacturing' (unit, GLO, None)", 0.8423395377495404], ["'SUD raw materials' (unit, GLO, None)", 0.1671249430011358], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561146419174], ["'marginal heating grid' (megajoule, DK, None)", -0.06332781331341467], ["'transport' (ton kilometer, GLO, None)", 0.009201302600962255], ["'eol SUD' (kilogram, GLO, None)", 0.4228759525764293], ["'surgery use' (unit, DK, None)", 0.003338416852669521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516847706972]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178858743574], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247527982494], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764909956511], ["'mechanical disinfection' (unit, DK, None)", 0.025475885234447104], ["'H200 SU' (unit, GLO, None)", 0.0923677731039343], ["'autoclave' (unit, DK, None)", 0.012824595658417289], ["'transport' (ton kilometer, GLO, None)", 0.0037637174812387205], ["'marginal heating grid' (megajoule, DK, None)", -0.0143836546567837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006777009632753202], ["'eol MUD' (kilogram, GLO, None)", 0.014549819720870508], ["'scalpel' (unit, GLO, None)", 0.01855843283211279], ["'surgery use' (unit, DK, None)", 0.003338416852669521]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381564059266357], ["'SUD manufacturing' (unit, GLO, None)", 0.6379439843841606], ["'SUD raw materials' (unit, GLO, None)", 0.02542561171137364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308775484312], ["'marginal heating grid' (megajoule, DK, None)", -0.01070396289674016], ["'transport' (ton kilometer, GLO, None)", 0.00025509249119566834], ["'eol SUD' (kilogram, GLO, None)", 0.03522084813266139], ["'surgery use' (unit, DK, None)", 0.002499280189861484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.0250460117494596e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855873430091], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699455958421], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383523723], ["'mechanical disinfection' (unit, DK, None)", 0.015926458129695942], ["'H200 SU' (unit, GLO, None)", 0.0017341826454957369], ["'autoclave' (unit, DK, None)", 0.005605732398707728], ["'transport' (ton kilometer, GLO, None)", 0.00010434349462058407], ["'marginal heating grid' (megajoule, DK, None)", -0.0024311925157397296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0033154888798812643], ["'eol MUD' (kilogram, GLO, None)", 0.000729386611864489], ["'scalpel' (unit, GLO, None)", 0.01098912015861164], ["'surgery use' (unit, DK, None)", 0.002499280189861484]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095527863084], ["'SUD manufacturing' (unit, GLO, None)", 0.8601191274460525], ["'SUD raw materials' (unit, GLO, None)", 0.03525272094388336], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01802183517466691], ["'marginal heating grid' (megajoule, DK, None)", -0.013484798045914024], ["'transport' (ton kilometer, GLO, None)", 0.0004315874666365156], ["'eol SUD' (kilogram, GLO, None)", 0.04844171326934938], ["'surgery use' (unit, DK, None)", 0.003047335088770119], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172185513546e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061539022565133], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122498178861], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328919748], ["'mechanical disinfection' (unit, DK, None)", 0.019365957904359736], ["'H200 SU' (unit, GLO, None)", 0.002791227175426975], ["'autoclave' (unit, DK, None)", 0.0066255202289954695], ["'transport' (ton kilometer, GLO, None)", 0.00017653731904149233], ["'marginal heating grid' (megajoule, DK, None)", -0.0030628039728605705], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004093302062432993], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226441951], ["'scalpel' (unit, GLO, None)", 0.01524433021911954], ["'surgery use' (unit, DK, None)", 0.003047335088770119]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765496986643238], ["'SUD manufacturing' (unit, GLO, None)", 141.2756881313846], ["'SUD raw materials' (unit, GLO, None)", 7.355646502641995], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836332375444], ["'marginal heating grid' (megajoule, DK, None)", -0.9805235214147271], ["'transport' (ton kilometer, GLO, None)", 0.1772745981375091], ["'eol SUD' (kilogram, GLO, None)", 0.9425449741579245], ["'surgery use' (unit, DK, None)", 0.1585704041583562], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.01083698559389665]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317263923665999], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509118359179], ["'MUD raw materials' (unit, GLO, None)", 0.05933654358196971], ["'mechanical disinfection' (unit, DK, None)", 1.070268604948164], ["'H200 SU' (unit, GLO, None)", 0.14041486013389484], ["'autoclave' (unit, DK, None)", 0.513293236662802], ["'transport' (ton kilometer, GLO, None)", 0.07251272270079852], ["'marginal heating grid' (megajoule, DK, None)", -0.22270643777140112], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.20777494058289736], ["'eol MUD' (kilogram, GLO, None)", 0.03487713431824268], ["'scalpel' (unit, GLO, None)", 3.264321953426819], ["'surgery use' (unit, DK, None)", 0.1585704041583562]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640032346847], ["'SUD manufacturing' (unit, GLO, None)", 0.2433081077526297], ["'SUD raw materials' (unit, GLO, None)", 0.06922828461558775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315205155608], ["'marginal heating grid' (megajoule, DK, None)", -0.015196616890703602], ["'transport' (ton kilometer, GLO, None)", 0.0029295109138951186], ["'eol SUD' (kilogram, GLO, None)", 0.003573189777147397], ["'surgery use' (unit, DK, None)", 0.0007670950792152127], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396224027428]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01121757484075297], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392649721569], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097092501001], ["'mechanical disinfection' (unit, DK, None)", 0.006206330254028547], ["'H200 SU' (unit, GLO, None)", 0.03281594678598505], ["'autoclave' (unit, DK, None)", 0.00332004383805212], ["'transport' (ton kilometer, GLO, None)", 0.0011982924501313125], ["'marginal heating grid' (megajoule, DK, None)", -0.003451609614649753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001670613819697453], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271552948246], ["'scalpel' (unit, GLO, None)", 0.004552448416723472], ["'surgery use' (unit, DK, None)", 0.0007670950792152127]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991178147817623e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001229999333567889], ["'SUD raw materials' (unit, GLO, None)", 5.755860547748152e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198515522582e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.0698485209238615e-05], ["'transport' (ton kilometer, GLO, None)", 9.220203933111423e-07], ["'eol SUD' (kilogram, GLO, None)", 9.77299760913987e-06], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782225105772e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.111781587842124e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.6980541904458035e-06], ["'MUD raw materials' (unit, GLO, None)", 2.244443813074147e-07], ["'mechanical disinfection' (unit, DK, None)", 1.434050265786121e-05], ["'H200 SU' (unit, GLO, None)", 3.3663374310908627e-06], ["'autoclave' (unit, DK, None)", -4.572919802540159e-06], ["'transport' (ton kilometer, GLO, None)", 3.77144891637499e-07], ["'marginal heating grid' (megajoule, DK, None)", -6.972551026683501e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.731285099863006e-06], ["'eol MUD' (kilogram, GLO, None)", 3.553843860534347e-07], ["'scalpel' (unit, GLO, None)", 1.910487327836576e-05], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159353861914e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.177460826677798e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098936917073e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268770806597e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.716100565814001e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754498100914e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353498114694e-06], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.62992644138852e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604577928945e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.24858187106885e-07], ["'MUD raw materials' (unit, GLO, None)", 2.94023055790863e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473891970594e-05], ["'H200 SU' (unit, GLO, None)", 6.866388618061285e-07], ["'autoclave' (unit, DK, None)", 3.326291848484768e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860238203594e-07], ["'marginal heating grid' (megajoule, DK, None)", -6.169082825963893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.918002037333891e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287951726756e-08], ["'scalpel' (unit, GLO, None)", 6.950377660046241e-07], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002037023590657297], ["'SUD manufacturing' (unit, GLO, None)", 0.1486508526869145], ["'SUD raw materials' (unit, GLO, None)", 0.01405179606750083], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173058833329], ["'marginal heating grid' (megajoule, DK, None)", -0.0033577879726655597], ["'transport' (ton kilometer, GLO, None)", 0.00012238156876832732], ["'eol SUD' (kilogram, GLO, None)", 0.007893174920955733], ["'surgery use' (unit, DK, None)", 0.0005170130020783718], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748760625944896e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701125250241838], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00041689141544757865], ["'MUD raw materials' (unit, GLO, None)", 8.87876690260552e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0032576199376974342], ["'H200 SU' (unit, GLO, None)", 0.0007322000702123128], ["'autoclave' (unit, DK, None)", 0.0006790557715676145], ["'transport' (ton kilometer, GLO, None)", 5.005917854572053e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0007626548286216053], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010180366232454548], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426358604879], ["'scalpel' (unit, GLO, None)", 0.005047138262592836], ["'surgery use' (unit, DK, None)", 0.0005170130020783718]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012957096694405], ["'SUD manufacturing' (unit, GLO, None)", 15.65297737817522], ["'SUD raw materials' (unit, GLO, None)", 0.3317613451659215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351058485838], ["'marginal heating grid' (megajoule, DK, None)", -0.13822784958137185], ["'transport' (ton kilometer, GLO, None)", 0.007777795353033536], ["'eol SUD' (kilogram, GLO, None)", 0.5678474447952642], ["'surgery use' (unit, DK, None)", 0.01972150835766379], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114626244322]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222486493987793], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00868648443615628], ["'MUD raw materials' (unit, GLO, None)", 0.006597698286115432], ["'mechanical disinfection' (unit, DK, None)", 0.1337064778451818], ["'H200 SU' (unit, GLO, None)", 0.030779806824449224], ["'autoclave' (unit, DK, None)", 0.028737978646217847], ["'transport' (ton kilometer, GLO, None)", 0.0031814434982986267], ["'marginal heating grid' (megajoule, DK, None)", -0.031395709851663754], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03300998387501459], ["'eol MUD' (kilogram, GLO, None)", 0.01005709900385145], ["'scalpel' (unit, GLO, None)", 0.1364140600290401], ["'surgery use' (unit, DK, None)", 0.01972150835766379]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027176004874678544], ["'SUD manufacturing' (unit, GLO, None)", 0.06108873383046336], ["'SUD raw materials' (unit, GLO, None)", 0.002150464180050342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.46729676471805e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.012251866314400648], ["'transport' (ton kilometer, GLO, None)", 3.997786055717128e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132276402398612], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538491553694e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001053918336943368], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547212978955], ["'MUD raw materials' (unit, GLO, None)", -2.301735609704827e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509265463011362], ["'H200 SU' (unit, GLO, None)", 7.661236358950896e-05], ["'autoclave' (unit, DK, None)", 0.00030814665812755243], ["'transport' (ton kilometer, GLO, None)", 1.6352616489953727e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.002782768024773884], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6960482077200303e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900854855653e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478376356653], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01906269431334605], ["'SUD manufacturing' (unit, GLO, None)", 0.1511758425252755], ["'SUD raw materials' (unit, GLO, None)", 0.001500136638616798], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1470620058956153], ["'marginal heating grid' (megajoule, DK, None)", -0.07772600566561551], ["'transport' (ton kilometer, GLO, None)", 0.0003808730198176791], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261134961389], ["'surgery use' (unit, DK, None)", 0.01315159688233521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025189933885]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476712969118822], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587882271771], ["'MUD raw materials' (unit, GLO, None)", 4.80424462990982e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0882141699330583], ["'H200 SU' (unit, GLO, None)", -0.017383238600843037], ["'autoclave' (unit, DK, None)", 0.044234974345785195], ["'transport' (ton kilometer, GLO, None)", 0.0001557929898610299], ["'marginal heating grid' (megajoule, DK, None)", -0.017653917999859395], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03340221493559304], ["'eol MUD' (kilogram, GLO, None)", 2.911454613337023e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021956784468], ["'surgery use' (unit, DK, None)", 0.01315159688233521]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023919422926e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907182680969564], ["'SUD raw materials' (unit, GLO, None)", 0.006047829521366243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000387631195732208], ["'marginal heating grid' (megajoule, DK, None)", -3.098354883589746e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534422662383e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050938159319528e-05], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978508297209138e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378265513241545e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809678526165455e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085847060317], ["'mechanical disinfection' (unit, DK, None)", 6.44776042965574e-05], ["'H200 SU' (unit, GLO, None)", 4.073180115808557e-05], ["'autoclave' (unit, DK, None)", 8.157487415607117e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614051575805e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.0372975661033704e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.804273025337666e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593802524738057e-06], ["'scalpel' (unit, GLO, None)", 0.002545299620741351], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803502735352e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.540543838751471e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006736807728e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924447509295e-07], ["'marginal heating grid' (megajoule, DK, None)", -9.76109358924866e-08], ["'transport' (ton kilometer, GLO, None)", 4.1015002056622875e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213686303833e-08], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338402199667e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.050435467857002e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.4253517139152763e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842785711657e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513820798312e-08], ["'H200 SU' (unit, GLO, None)", -1.0216203696549964e-08], ["'autoclave' (unit, DK, None)", -4.5953568180425446e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850727353537e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.2170384845825266e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2070605075576647e-08], ["'eol MUD' (kilogram, GLO, None)", 2.144745078091703e-09], ["'scalpel' (unit, GLO, None)", 5.765542955507828e-09], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506458602829], ["'SUD manufacturing' (unit, GLO, None)", 0.005613009689248504], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913484004753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834688481586], ["'marginal heating grid' (megajoule, DK, None)", -0.00018019781128686624], ["'transport' (ton kilometer, GLO, None)", 7.046592373906674e-06], ["'eol SUD' (kilogram, GLO, None)", 2.55816414823966e-05], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407835624591e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001966470765341141], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291368654545e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836728397027e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737319768526538e-05], ["'H200 SU' (unit, GLO, None)", 3.11648164168069e-05], ["'autoclave' (unit, DK, None)", 6.015038561642829e-05], ["'transport' (ton kilometer, GLO, None)", 2.88235090736636e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.09283528333912e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.517018735676099e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668545463458e-06], ["'scalpel' (unit, GLO, None)", 0.000133646247234297], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001666038389894882], ["'SUD manufacturing' (unit, GLO, None)", 0.004645513003485093], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160832469996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003669297099055696], ["'marginal heating grid' (megajoule, DK, None)", -0.0003562692050054135], ["'transport' (ton kilometer, GLO, None)", 1.4617259282813189e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404059917019396e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454172930939e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387001397801823], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987045037892e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136506399753e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023422380400555862], ["'H200 SU' (unit, GLO, None)", 5.1360091150051e-05], ["'autoclave' (unit, DK, None)", 0.00010333748662292412], ["'transport' (ton kilometer, GLO, None)", 5.979070211729541e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.091947189591709e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.334079874593946e-05], ["'eol MUD' (kilogram, GLO, None)", 3.0606519804866146e-06], ["'scalpel' (unit, GLO, None)", 6.607934871834462e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416442895248], ["'SUD manufacturing' (unit, GLO, None)", 0.004776248403353508], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382331167213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003749870742363974], ["'marginal heating grid' (megajoule, DK, None)", -0.00036616258006000357], ["'transport' (ton kilometer, GLO, None)", 1.6594221778907553e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355584299151e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350436951147934e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000395765262424173], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242019758769e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446413866794e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869118683127], ["'H200 SU' (unit, GLO, None)", 5.793318707906643e-05], ["'autoclave' (unit, DK, None)", 0.0001055089026224163], ["'transport' (ton kilometer, GLO, None)", 6.787730531793958e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.316655548730833e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.517086908636254e-05], ["'eol MUD' (kilogram, GLO, None)", 3.1205947685226213e-06], ["'scalpel' (unit, GLO, None)", 6.891290063113821e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805794682304], ["'SUD manufacturing' (unit, GLO, None)", 0.006116465824549104], ["'SUD raw materials' (unit, GLO, None)", 0.001892874629998673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395274815474], ["'marginal heating grid' (megajoule, DK, None)", -0.0005120176307322694], ["'transport' (ton kilometer, GLO, None)", 1.3643310305041385e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350820981124], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.7927014727521e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308602183302], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728435668887], ["'MUD raw materials' (unit, GLO, None)", -1.660040580640854e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00025148699481069463], ["'H200 SU' (unit, GLO, None)", 0.0003474393196749765], ["'autoclave' (unit, DK, None)", 0.00014555051291483665], ["'transport' (ton kilometer, GLO, None)", 5.580684357851529e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.00011629463253672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.413844888943847e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770216529211e-05], ["'scalpel' (unit, GLO, None)", -1.265926839364866e-05], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.35888624325195e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.094005269670633e-08], ["'SUD raw materials' (unit, GLO, None)", 8.92930933746462e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.533039540452e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.018165973171327e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523747724804e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265623333607e-09], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584936447414796e-11]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650450379312042e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359276092783e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420593111054e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753611925948666e-10], ["'H200 SU' (unit, GLO, None)", 1.3141413568584388e-10], ["'autoclave' (unit, DK, None)", 4.799271511957515e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801382532504e-11], ["'marginal heating grid' (megajoule, DK, None)", -2.3125617284312956e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.481994953291143e-10], ["'eol MUD' (kilogram, GLO, None)", 4.3112602910251515e-11], ["'scalpel' (unit, GLO, None)", 2.017326786497207e-10], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702503332407e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.385986167345217e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183359276183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275420643417e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.1634377997237152e-07], ["'transport' (ton kilometer, GLO, None)", 1.51943476293686e-08], ["'eol SUD' (kilogram, GLO, None)", 5.65349124603913e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563448974209e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.325379597696775e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920178416034e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736829334122e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694773316560425e-07], ["'H200 SU' (unit, GLO, None)", 1.155575281638174e-07], ["'autoclave' (unit, DK, None)", 5.889489581256374e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123474223332e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.9138191506236915e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.328082208732621e-08], ["'eol MUD' (kilogram, GLO, None)", 1.689238252471215e-08], ["'scalpel' (unit, GLO, None)", 1.490714930334773e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774314947607], ["'SUD manufacturing' (unit, GLO, None)", 0.05016967649099503], ["'SUD raw materials' (unit, GLO, None)", 0.02615081599853262], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001744977966], ["'marginal heating grid' (megajoule, DK, None)", -0.004559035167367073], ["'transport' (ton kilometer, GLO, None)", 0.0012339467113320131], ["'eol SUD' (kilogram, GLO, None)", 0.001288015495279953], ["'surgery use' (unit, DK, None)", 0.0002378859944525408], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633769468985]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00263087431234035], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270279614996], ["'MUD raw materials' (unit, GLO, None)", 0.000131997131595137], ["'mechanical disinfection' (unit, DK, None)", 0.00176831809470043], ["'H200 SU' (unit, GLO, None)", 0.013288603745294987], ["'autoclave' (unit, DK, None)", 0.0005692589253450651], ["'transport' (ton kilometer, GLO, None)", 0.0005047357977197318], ["'marginal heating grid' (megajoule, DK, None)", -0.0010354942636500168], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005550152654871521], ["'eol MUD' (kilogram, GLO, None)", 4.48025799617755e-05], ["'scalpel' (unit, GLO, None)", 0.001563766604247116], ["'surgery use' (unit, DK, None)", 0.0002378859944525408]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_consq/data_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_case2_consq_recipe.xlsx
@@ -14,195 +14,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>MUD</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001743240477307964], ["'SUD manufacturing' (unit, GLO, None)", 0.0172355348041119], ["'SUD raw materials' (unit, GLO, None)", 0.001022410068963112], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564331490967], ["'marginal heating grid' (megajoule, DK, None)", -0.0003009715454775589], ["'transport' (ton kilometer, GLO, None)", 1.1432094580629275e-05], ["'eol SUD' (kilogram, GLO, None)", 5.762199458242302e-05], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.7337231604869874e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302470066619], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.585036208369033e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349667739e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00026395610067300864], ["'H200 SU' (unit, GLO, None)", 6.616809857590507e-05], ["'autoclave' (unit, DK, None)", 0.0001449911849247265], ["'transport' (ton kilometer, GLO, None)", 4.676204672998054e-06], ["'marginal heating grid' (megajoule, DK, None)", -6.835970713599002e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.137710968249427e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002898383317e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982775540133], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302470066619], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.585036208369033e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349667739e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00026395610067300864], ["'H200 SU' (unit, GLO, None)", 6.616809857590507e-05], ["'autoclave' (unit, DK, None)", 0.00012427815850690846], ["'transport' (ton kilometer, GLO, None)", 4.676204672998054e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2454174116136224e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3003902285946525e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002898383317e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982775540133], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263463255905], ["'SUD manufacturing' (unit, GLO, None)", 0.8423395377495404], ["'SUD raw materials' (unit, GLO, None)", 0.1671249430011358], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561146419174], ["'marginal heating grid' (megajoule, DK, None)", -0.06332781331341467], ["'transport' (ton kilometer, GLO, None)", 0.009201302600962255], ["'eol SUD' (kilogram, GLO, None)", 0.4228759525764293], ["'surgery use' (unit, DK, None)", 0.003338416852669521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516847706972]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178858743574], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247527982494], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764909956511], ["'mechanical disinfection' (unit, DK, None)", 0.025475885234447104], ["'H200 SU' (unit, GLO, None)", 0.0923677731039343], ["'autoclave' (unit, DK, None)", 0.012824595658417289], ["'transport' (ton kilometer, GLO, None)", 0.0037637174812387205], ["'marginal heating grid' (megajoule, DK, None)", -0.0143836546567837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006777009632753202], ["'eol MUD' (kilogram, GLO, None)", 0.014549819720870508], ["'scalpel' (unit, GLO, None)", 0.01855843283211279], ["'surgery use' (unit, DK, None)", 0.003338416852669521]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178858743574], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247527982494], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764909956511], ["'mechanical disinfection' (unit, DK, None)", 0.025475885234447104], ["'H200 SU' (unit, GLO, None)", 0.0923677731039343], ["'autoclave' (unit, DK, None)", 0.01099251056435768], ["'transport' (ton kilometer, GLO, None)", 0.0037637174812387205], ["'marginal heating grid' (megajoule, DK, None)", -0.00262049893171128], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0012346755345972616], ["'eol MUD' (kilogram, GLO, None)", 0.014549819720870508], ["'scalpel' (unit, GLO, None)", 0.01855843283211279], ["'surgery use' (unit, DK, None)", 0.003338416852669521]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381564059266357], ["'SUD manufacturing' (unit, GLO, None)", 0.6379439843841606], ["'SUD raw materials' (unit, GLO, None)", 0.02542561171137364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308775484312], ["'marginal heating grid' (megajoule, DK, None)", -0.01070396289674016], ["'transport' (ton kilometer, GLO, None)", 0.00025509249119566834], ["'eol SUD' (kilogram, GLO, None)", 0.03522084813266139], ["'surgery use' (unit, DK, None)", 0.002499280189861484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.0250460117494596e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855873430091], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699455958421], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383523723], ["'mechanical disinfection' (unit, DK, None)", 0.015926458129695942], ["'H200 SU' (unit, GLO, None)", 0.0017341826454957369], ["'autoclave' (unit, DK, None)", 0.005605732398707728], ["'transport' (ton kilometer, GLO, None)", 0.00010434349462058407], ["'marginal heating grid' (megajoule, DK, None)", -0.0024311925157397296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0033154888798812643], ["'eol MUD' (kilogram, GLO, None)", 0.000729386611864489], ["'scalpel' (unit, GLO, None)", 0.01098912015861164], ["'surgery use' (unit, DK, None)", 0.002499280189861484]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855873430091], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699455958421], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383523723], ["'mechanical disinfection' (unit, DK, None)", 0.015926458129695942], ["'H200 SU' (unit, GLO, None)", 0.0017341826454957369], ["'autoclave' (unit, DK, None)", 0.004804913484606625], ["'transport' (ton kilometer, GLO, None)", 0.00010434349462058407], ["'marginal heating grid' (megajoule, DK, None)", -0.00044292897335905686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006040352938904772], ["'eol MUD' (kilogram, GLO, None)", 0.000729386611864489], ["'scalpel' (unit, GLO, None)", 0.01098912015861164], ["'surgery use' (unit, DK, None)", 0.002499280189861484]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095527863084], ["'SUD manufacturing' (unit, GLO, None)", 0.8601191274460525], ["'SUD raw materials' (unit, GLO, None)", 0.03525272094388336], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01802183517466691], ["'marginal heating grid' (megajoule, DK, None)", -0.013484798045914024], ["'transport' (ton kilometer, GLO, None)", 0.0004315874666365156], ["'eol SUD' (kilogram, GLO, None)", 0.04844171326934938], ["'surgery use' (unit, DK, None)", 0.003047335088770119], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172185513546e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061539022565133], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122498178861], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328919748], ["'mechanical disinfection' (unit, DK, None)", 0.019365957904359736], ["'H200 SU' (unit, GLO, None)", 0.002791227175426975], ["'autoclave' (unit, DK, None)", 0.0066255202289954695], ["'transport' (ton kilometer, GLO, None)", 0.00017653731904149233], ["'marginal heating grid' (megajoule, DK, None)", -0.0030628039728605705], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004093302062432993], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226441951], ["'scalpel' (unit, GLO, None)", 0.01524433021911954], ["'surgery use' (unit, DK, None)", 0.003047335088770119]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061539022565133], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122498178861], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328919748], ["'mechanical disinfection' (unit, DK, None)", 0.019365957904359736], ["'H200 SU' (unit, GLO, None)", 0.002791227175426975], ["'autoclave' (unit, DK, None)", 0.005679017339138976], ["'transport' (ton kilometer, GLO, None)", 0.00017653731904149233], ["'marginal heating grid' (megajoule, DK, None)", -0.0005579996690991805], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0007457418811649749], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226441951], ["'scalpel' (unit, GLO, None)", 0.01524433021911954], ["'surgery use' (unit, DK, None)", 0.003047335088770119]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765496986643238], ["'SUD manufacturing' (unit, GLO, None)", 141.2756881313846], ["'SUD raw materials' (unit, GLO, None)", 7.355646502641995], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836332375444], ["'marginal heating grid' (megajoule, DK, None)", -0.9805235214147271], ["'transport' (ton kilometer, GLO, None)", 0.1772745981375091], ["'eol SUD' (kilogram, GLO, None)", 0.9425449741579245], ["'surgery use' (unit, DK, None)", 0.1585704041583562], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.01083698559389665]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317263923665999], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509118359179], ["'MUD raw materials' (unit, GLO, None)", 0.05933654358196971], ["'mechanical disinfection' (unit, DK, None)", 1.070268604948164], ["'H200 SU' (unit, GLO, None)", 0.14041486013389484], ["'autoclave' (unit, DK, None)", 0.513293236662802], ["'transport' (ton kilometer, GLO, None)", 0.07251272270079852], ["'marginal heating grid' (megajoule, DK, None)", -0.22270643777140112], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.20777494058289736], ["'eol MUD' (kilogram, GLO, None)", 0.03487713431824268], ["'scalpel' (unit, GLO, None)", 3.264321953426819], ["'surgery use' (unit, DK, None)", 0.1585704041583562]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317263923665999], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509118359179], ["'MUD raw materials' (unit, GLO, None)", 0.05933654358196971], ["'mechanical disinfection' (unit, DK, None)", 1.070268604948164], ["'H200 SU' (unit, GLO, None)", 0.14041486013389484], ["'autoclave' (unit, DK, None)", 0.439965631425259], ["'transport' (ton kilometer, GLO, None)", 0.07251272270079852], ["'marginal heating grid' (megajoule, DK, None)", -0.04057397067649561], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.03785366256531117], ["'eol MUD' (kilogram, GLO, None)", 0.03487713431824268], ["'scalpel' (unit, GLO, None)", 3.264321953426819], ["'surgery use' (unit, DK, None)", 0.1585704041583562]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640032346847], ["'SUD manufacturing' (unit, GLO, None)", 0.2433081077526297], ["'SUD raw materials' (unit, GLO, None)", 0.06922828461558775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315205155608], ["'marginal heating grid' (megajoule, DK, None)", -0.015196616890703602], ["'transport' (ton kilometer, GLO, None)", 0.0029295109138951186], ["'eol SUD' (kilogram, GLO, None)", 0.003573189777147397], ["'surgery use' (unit, DK, None)", 0.0007670950792152127], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396224027428]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01121757484075297], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392649721569], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097092501001], ["'mechanical disinfection' (unit, DK, None)", 0.006206330254028547], ["'H200 SU' (unit, GLO, None)", 0.03281594678598505], ["'autoclave' (unit, DK, None)", 0.00332004383805212], ["'transport' (ton kilometer, GLO, None)", 0.0011982924501313125], ["'marginal heating grid' (megajoule, DK, None)", -0.003451609614649753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001670613819697453], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271552948246], ["'scalpel' (unit, GLO, None)", 0.004552448416723472], ["'surgery use' (unit, DK, None)", 0.0007670950792152127]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01121757484075297], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392649721569], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097092501001], ["'mechanical disinfection' (unit, DK, None)", 0.006206330254028547], ["'H200 SU' (unit, GLO, None)", 0.03281594678598505], ["'autoclave' (unit, DK, None)", 0.0028457518611875324], ["'transport' (ton kilometer, GLO, None)", 0.0011982924501313125], ["'marginal heating grid' (megajoule, DK, None)", -0.0006288345711643067], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003043622663558994], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271552948246], ["'scalpel' (unit, GLO, None)", 0.004552448416723472], ["'surgery use' (unit, DK, None)", 0.0007670950792152127]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991178147817623e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001229999333567889], ["'SUD raw materials' (unit, GLO, None)", 5.755860547748152e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198515522582e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.0698485209238615e-05], ["'transport' (ton kilometer, GLO, None)", 9.220203933111423e-07], ["'eol SUD' (kilogram, GLO, None)", 9.77299760913987e-06], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782225105772e-07]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.111781587842124e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.6980541904458035e-06], ["'MUD raw materials' (unit, GLO, None)", 2.244443813074147e-07], ["'mechanical disinfection' (unit, DK, None)", 1.434050265786121e-05], ["'H200 SU' (unit, GLO, None)", 3.3663374310908627e-06], ["'autoclave' (unit, DK, None)", -4.572919802540159e-06], ["'transport' (ton kilometer, GLO, None)", 3.77144891637499e-07], ["'marginal heating grid' (megajoule, DK, None)", -6.972551026683501e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.731285099863006e-06], ["'eol MUD' (kilogram, GLO, None)", 3.553843860534347e-07], ["'scalpel' (unit, GLO, None)", 1.910487327836576e-05], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.111781587842124e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.6980541904458035e-06], ["'MUD raw materials' (unit, GLO, None)", 2.244443813074147e-07], ["'mechanical disinfection' (unit, DK, None)", 1.434050265786121e-05], ["'H200 SU' (unit, GLO, None)", 3.3663374310908627e-06], ["'autoclave' (unit, DK, None)", -3.9196455450344235e-06], ["'transport' (ton kilometer, GLO, None)", 3.77144891637499e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.2703004175721897e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.976016080179149e-07], ["'eol MUD' (kilogram, GLO, None)", 3.553843860534347e-07], ["'scalpel' (unit, GLO, None)", 1.910487327836576e-05], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159353861914e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.177460826677798e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098936917073e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268770806597e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.716100565814001e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754498100914e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353498114694e-06], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.62992644138852e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604577928945e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.24858187106885e-07], ["'MUD raw materials' (unit, GLO, None)", 2.94023055790863e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473891970594e-05], ["'H200 SU' (unit, GLO, None)", 6.866388618061285e-07], ["'autoclave' (unit, DK, None)", 3.326291848484768e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860238203594e-07], ["'marginal heating grid' (megajoule, DK, None)", -6.169082825963893e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.918002037333891e-07], ["'eol MUD' (kilogram, GLO, None)", 6.397287951726756e-08], ["'scalpel' (unit, GLO, None)", 6.950377660046241e-07], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604577928945e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.24858187106885e-07], ["'MUD raw materials' (unit, GLO, None)", 2.94023055790863e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473891970594e-05], ["'H200 SU' (unit, GLO, None)", 6.866388618061285e-07], ["'autoclave' (unit, DK, None)", 2.851107298701231e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860238203594e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.1239198479680163e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.316187995349604e-08], ["'eol MUD' (kilogram, GLO, None)", 6.397287951726756e-08], ["'scalpel' (unit, GLO, None)", 6.950377660046241e-07], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002037023590657297], ["'SUD manufacturing' (unit, GLO, None)", 0.1486508526869145], ["'SUD raw materials' (unit, GLO, None)", 0.01405179606750083], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173058833329], ["'marginal heating grid' (megajoule, DK, None)", -0.0033577879726655597], ["'transport' (ton kilometer, GLO, None)", 0.00012238156876832732], ["'eol SUD' (kilogram, GLO, None)", 0.007893174920955733], ["'surgery use' (unit, DK, None)", 0.0005170130020783718], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748760625944896e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701125250241838], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00041689141544757865], ["'MUD raw materials' (unit, GLO, None)", 8.87876690260552e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0032576199376974342], ["'H200 SU' (unit, GLO, None)", 0.0007322000702123128], ["'autoclave' (unit, DK, None)", 0.0006790557715676145], ["'transport' (ton kilometer, GLO, None)", 5.005917854572053e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0007626548286216053], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010180366232454548], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426358604879], ["'scalpel' (unit, GLO, None)", 0.005047138262592836], ["'surgery use' (unit, DK, None)", 0.0005170130020783718]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701125250241838], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00041689141544757865], ["'MUD raw materials' (unit, GLO, None)", 8.87876690260552e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0032576199376974342], ["'H200 SU' (unit, GLO, None)", 0.0007322000702123128], ["'autoclave' (unit, DK, None)", 0.0005820478042008126], ["'transport' (ton kilometer, GLO, None)", 5.005917854572053e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013894494906583463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00018547190872658258], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426358604879], ["'scalpel' (unit, GLO, None)", 0.005047138262592836], ["'surgery use' (unit, DK, None)", 0.0005170130020783718]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012957096694405], ["'SUD manufacturing' (unit, GLO, None)", 15.65297737817522], ["'SUD raw materials' (unit, GLO, None)", 0.3317613451659215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351058485838], ["'marginal heating grid' (megajoule, DK, None)", -0.13822784958137185], ["'transport' (ton kilometer, GLO, None)", 0.007777795353033536], ["'eol SUD' (kilogram, GLO, None)", 0.5678474447952642], ["'surgery use' (unit, DK, None)", 0.01972150835766379], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114626244322]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222486493987793], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00868648443615628], ["'MUD raw materials' (unit, GLO, None)", 0.006597698286115432], ["'mechanical disinfection' (unit, DK, None)", 0.1337064778451818], ["'H200 SU' (unit, GLO, None)", 0.030779806824449224], ["'autoclave' (unit, DK, None)", 0.028737978646217847], ["'transport' (ton kilometer, GLO, None)", 0.0031814434982986267], ["'marginal heating grid' (megajoule, DK, None)", -0.031395709851663754], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03300998387501459], ["'eol MUD' (kilogram, GLO, None)", 0.01005709900385145], ["'scalpel' (unit, GLO, None)", 0.1364140600290401], ["'surgery use' (unit, DK, None)", 0.01972150835766379]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222486493987793], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00868648443615628], ["'MUD raw materials' (unit, GLO, None)", 0.006597698286115432], ["'mechanical disinfection' (unit, DK, None)", 0.1337064778451818], ["'H200 SU' (unit, GLO, None)", 0.030779806824449224], ["'autoclave' (unit, DK, None)", 0.024632553125329592], ["'transport' (ton kilometer, GLO, None)", 0.0031814434982986267], ["'marginal heating grid' (megajoule, DK, None)", -0.0057198553559404605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006013953306330626], ["'eol MUD' (kilogram, GLO, None)", 0.01005709900385145], ["'scalpel' (unit, GLO, None)", 0.1364140600290401], ["'surgery use' (unit, DK, None)", 0.01972150835766379]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027176004874678544], ["'SUD manufacturing' (unit, GLO, None)", 0.06108873383046336], ["'SUD raw materials' (unit, GLO, None)", 0.002150464180050342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.46729676471805e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.012251866314400648], ["'transport' (ton kilometer, GLO, None)", 3.997786055717128e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132276402398612], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538491553694e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001053918336943368], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547212978955], ["'MUD raw materials' (unit, GLO, None)", -2.301735609704827e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509265463011362], ["'H200 SU' (unit, GLO, None)", 7.661236358950896e-05], ["'autoclave' (unit, DK, None)", 0.00030814665812755243], ["'transport' (ton kilometer, GLO, None)", 1.6352616489953727e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.002782768024773884], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6960482077200303e-05], ["'eol MUD' (kilogram, GLO, None)", -9.351900854855653e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478376356653], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001053918336943368], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547212978955], ["'MUD raw materials' (unit, GLO, None)", -2.301735609704827e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509265463011362], ["'H200 SU' (unit, GLO, None)", 7.661236358950896e-05], ["'autoclave' (unit, DK, None)", 0.00026412570696647357], ["'transport' (ton kilometer, GLO, None)", 1.6352616489953727e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0005069810705362747], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.0899605298609073e-06], ["'eol MUD' (kilogram, GLO, None)", -9.351900854855653e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478376356653], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01906269431334605], ["'SUD manufacturing' (unit, GLO, None)", 0.1511758425252755], ["'SUD raw materials' (unit, GLO, None)", 0.001500136638616798], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1470620058956153], ["'marginal heating grid' (megajoule, DK, None)", -0.07772600566561551], ["'transport' (ton kilometer, GLO, None)", 0.0003808730198176791], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261134961389], ["'surgery use' (unit, DK, None)", 0.01315159688233521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025189933885]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476712969118822], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587882271771], ["'MUD raw materials' (unit, GLO, None)", 4.80424462990982e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0882141699330583], ["'H200 SU' (unit, GLO, None)", -0.017383238600843037], ["'autoclave' (unit, DK, None)", 0.044234974345785195], ["'transport' (ton kilometer, GLO, None)", 0.0001557929898610299], ["'marginal heating grid' (megajoule, DK, None)", -0.017653917999859395], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03340221493559304], ["'eol MUD' (kilogram, GLO, None)", 2.911454613337023e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021956784468], ["'surgery use' (unit, DK, None)", 0.01315159688233521]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476712969118822], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587882271771], ["'MUD raw materials' (unit, GLO, None)", 4.80424462990982e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0882141699330583], ["'H200 SU' (unit, GLO, None)", -0.017383238600843037], ["'autoclave' (unit, DK, None)", 0.037915692296387325], ["'transport' (ton kilometer, GLO, None)", 0.0001557929898610299], ["'marginal heating grid' (megajoule, DK, None)", -0.0032162947709073165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006085412271368072], ["'eol MUD' (kilogram, GLO, None)", 2.911454613337023e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021956784468], ["'surgery use' (unit, DK, None)", 0.01315159688233521]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023919422926e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907182680969564], ["'SUD raw materials' (unit, GLO, None)", 0.006047829521366243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000387631195732208], ["'marginal heating grid' (megajoule, DK, None)", -3.098354883589746e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534422662383e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050938159319528e-05], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978508297209138e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378265513241545e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809678526165455e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085847060317], ["'mechanical disinfection' (unit, DK, None)", 6.44776042965574e-05], ["'H200 SU' (unit, GLO, None)", 4.073180115808557e-05], ["'autoclave' (unit, DK, None)", 8.157487415607117e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614051575805e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.0372975661033704e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.804273025337666e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593802524738057e-06], ["'scalpel' (unit, GLO, None)", 0.002545299620741351], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378265513241545e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809678526165455e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085847060317], ["'mechanical disinfection' (unit, DK, None)", 6.44776042965574e-05], ["'H200 SU' (unit, GLO, None)", 4.073180115808557e-05], ["'autoclave' (unit, DK, None)", 6.992132070520389e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614051575805e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.2820963235105841e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.604014320971661e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593802524738057e-06], ["'scalpel' (unit, GLO, None)", 0.002545299620741351], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803502735352e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.540543838751471e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006736807728e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924447509295e-07], ["'marginal heating grid' (megajoule, DK, None)", -9.76109358924866e-08], ["'transport' (ton kilometer, GLO, None)", 4.1015002056622875e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213686303833e-08], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338402199667e-10]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.050435467857002e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.4253517139152763e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842785711657e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513820798312e-08], ["'H200 SU' (unit, GLO, None)", -1.0216203696549964e-08], ["'autoclave' (unit, DK, None)", -4.5953568180425446e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850727353537e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.2170384845825266e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2070605075576647e-08], ["'eol MUD' (kilogram, GLO, None)", 2.144745078091703e-09], ["'scalpel' (unit, GLO, None)", 5.765542955507828e-09], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.050435467857002e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.4253517139152763e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842785711657e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513820798312e-08], ["'H200 SU' (unit, GLO, None)", -1.0216203696549964e-08], ["'autoclave' (unit, DK, None)", -3.938877272607897e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850727353537e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.039131304971425e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.842811743276039e-09], ["'eol MUD' (kilogram, GLO, None)", 2.144745078091703e-09], ["'scalpel' (unit, GLO, None)", 5.765542955507828e-09], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506458602829], ["'SUD manufacturing' (unit, GLO, None)", 0.005613009689248504], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913484004753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834688481586], ["'marginal heating grid' (megajoule, DK, None)", -0.00018019781128686624], ["'transport' (ton kilometer, GLO, None)", 7.046592373906674e-06], ["'eol SUD' (kilogram, GLO, None)", 2.55816414823966e-05], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407835624591e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001966470765341141], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291368654545e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836728397027e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737319768526538e-05], ["'H200 SU' (unit, GLO, None)", 3.11648164168069e-05], ["'autoclave' (unit, DK, None)", 6.015038561642829e-05], ["'transport' (ton kilometer, GLO, None)", 2.88235090736636e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.09283528333912e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.517018735676099e-05], ["'eol MUD' (kilogram, GLO, None)", 1.0111668545463458e-06], ["'scalpel' (unit, GLO, None)", 0.000133646247234297], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001966470765341141], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291368654545e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836728397027e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737319768526538e-05], ["'H200 SU' (unit, GLO, None)", 3.11648164168069e-05], ["'autoclave' (unit, DK, None)", 5.1557473385509985e-05], ["'transport' (ton kilometer, GLO, None)", 2.88235090736636e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.4565684060011035e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.585652996629559e-06], ["'eol MUD' (kilogram, GLO, None)", 1.0111668545463458e-06], ["'scalpel' (unit, GLO, None)", 0.000133646247234297], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001666038389894882], ["'SUD manufacturing' (unit, GLO, None)", 0.004645513003485093], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160832469996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003669297099055696], ["'marginal heating grid' (megajoule, DK, None)", -0.0003562692050054135], ["'transport' (ton kilometer, GLO, None)", 1.4617259282813189e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404059917019396e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454172930939e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387001397801823], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987045037892e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136506399753e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023422380400555862], ["'H200 SU' (unit, GLO, None)", 5.1360091150051e-05], ["'autoclave' (unit, DK, None)", 0.00010333748662292412], ["'transport' (ton kilometer, GLO, None)", 5.979070211729541e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.091947189591709e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.334079874593946e-05], ["'eol MUD' (kilogram, GLO, None)", 3.0606519804866146e-06], ["'scalpel' (unit, GLO, None)", 6.607934871834462e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387001397801823], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987045037892e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136506399753e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023422380400555862], ["'H200 SU' (unit, GLO, None)", 5.1360091150051e-05], ["'autoclave' (unit, DK, None)", 8.857498853393499e-05], ["'transport' (ton kilometer, GLO, None)", 5.979070211729541e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.4742386042888188e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5183517631153537e-05], ["'eol MUD' (kilogram, GLO, None)", 3.0606519804866146e-06], ["'scalpel' (unit, GLO, None)", 6.607934871834462e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416442895248], ["'SUD manufacturing' (unit, GLO, None)", 0.004776248403353508], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382331167213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003749870742363974], ["'marginal heating grid' (megajoule, DK, None)", -0.00036616258006000357], ["'transport' (ton kilometer, GLO, None)", 1.6594221778907553e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355584299151e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350436951147934e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000395765262424173], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242019758769e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446413866794e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869118683127], ["'H200 SU' (unit, GLO, None)", 5.793318707906643e-05], ["'autoclave' (unit, DK, None)", 0.0001055089026224163], ["'transport' (ton kilometer, GLO, None)", 6.787730531793958e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.316655548730833e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.517086908636254e-05], ["'eol MUD' (kilogram, GLO, None)", 3.1205947685226213e-06], ["'scalpel' (unit, GLO, None)", 6.891290063113821e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000395765262424173], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242019758769e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446413866794e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869118683127], ["'H200 SU' (unit, GLO, None)", 5.793318707906643e-05], ["'autoclave' (unit, DK, None)", 9.043620224778543e-05], ["'transport' (ton kilometer, GLO, None)", 6.787730531793958e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.5151772967923234e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5516930625727446e-05], ["'eol MUD' (kilogram, GLO, None)", 3.1205947685226213e-06], ["'scalpel' (unit, GLO, None)", 6.891290063113821e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805794682304], ["'SUD manufacturing' (unit, GLO, None)", 0.006116465824549104], ["'SUD raw materials' (unit, GLO, None)", 0.001892874629998673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395274815474], ["'marginal heating grid' (megajoule, DK, None)", -0.0005120176307322694], ["'transport' (ton kilometer, GLO, None)", 1.3643310305041385e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350820981124], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.7927014727521e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308602183302], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728435668887], ["'MUD raw materials' (unit, GLO, None)", -1.660040580640854e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00025148699481069463], ["'H200 SU' (unit, GLO, None)", 0.0003474393196749765], ["'autoclave' (unit, DK, None)", 0.00014555051291483665], ["'transport' (ton kilometer, GLO, None)", 5.580684357851529e-06], ["'marginal heating grid' (megajoule, DK, None)", -0.00011629463253672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.413844888943847e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770216529211e-05], ["'scalpel' (unit, GLO, None)", -1.265926839364866e-05], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308602183302], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728435668887], ["'MUD raw materials' (unit, GLO, None)", -1.660040580640854e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00025148699481069463], ["'H200 SU' (unit, GLO, None)", 0.0003474393196749765], ["'autoclave' (unit, DK, None)", 0.00012475758249843146], ["'transport' (ton kilometer, GLO, None)", 5.580684357851529e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.118724118438861e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3506979328225e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770216529211e-05], ["'scalpel' (unit, GLO, None)", -1.265926839364866e-05], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.35888624325195e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.094005269670633e-08], ["'SUD raw materials' (unit, GLO, None)", 8.92930933746462e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.533039540452e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.018165973171327e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523747724804e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265623333607e-09], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584936447414796e-11]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650450379312042e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359276092783e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420593111054e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753611925948666e-10], ["'H200 SU' (unit, GLO, None)", 1.3141413568584388e-10], ["'autoclave' (unit, DK, None)", 4.799271511957515e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801382532504e-11], ["'marginal heating grid' (megajoule, DK, None)", -2.3125617284312956e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.481994953291143e-10], ["'eol MUD' (kilogram, GLO, None)", 4.3112602910251515e-11], ["'scalpel' (unit, GLO, None)", 2.017326786497207e-10], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650450379312042e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359276092783e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420593111054e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753611925948666e-10], ["'H200 SU' (unit, GLO, None)", 1.3141413568584388e-10], ["'autoclave' (unit, DK, None)", 4.1136612959635863e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801382532504e-11], ["'marginal heating grid' (megajoule, DK, None)", -4.213161177373318e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.34370351141608e-11], ["'eol MUD' (kilogram, GLO, None)", 4.3112602910251515e-11], ["'scalpel' (unit, GLO, None)", 2.017326786497207e-10], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702503332407e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.385986167345217e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183359276183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275420643417e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.1634377997237152e-07], ["'transport' (ton kilometer, GLO, None)", 1.51943476293686e-08], ["'eol SUD' (kilogram, GLO, None)", 5.65349124603913e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563448974209e-09]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.325379597696775e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920178416034e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736829334122e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694773316560425e-07], ["'H200 SU' (unit, GLO, None)", 1.155575281638174e-07], ["'autoclave' (unit, DK, None)", 5.889489581256374e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123474223332e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.9138191506236915e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.328082208732621e-08], ["'eol MUD' (kilogram, GLO, None)", 1.689238252471215e-08], ["'scalpel' (unit, GLO, None)", 1.490714930334773e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.325379597696775e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920178416034e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736829334122e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694773316560425e-07], ["'H200 SU' (unit, GLO, None)", 1.155575281638174e-07], ["'autoclave' (unit, DK, None)", 5.0481339267911796e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123474223332e-09], ["'marginal heating grid' (megajoule, DK, None)", -8.95228517514417e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.0632962072111384e-09], ["'eol MUD' (kilogram, GLO, None)", 1.689238252471215e-08], ["'scalpel' (unit, GLO, None)", 1.490714930334773e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774314947607], ["'SUD manufacturing' (unit, GLO, None)", 0.05016967649099503], ["'SUD raw materials' (unit, GLO, None)", 0.02615081599853262], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001744977966], ["'marginal heating grid' (megajoule, DK, None)", -0.004559035167367073], ["'transport' (ton kilometer, GLO, None)", 0.0012339467113320131], ["'eol SUD' (kilogram, GLO, None)", 0.001288015495279953], ["'surgery use' (unit, DK, None)", 0.0002378859944525408], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633769468985]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00263087431234035], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270279614996], ["'MUD raw materials' (unit, GLO, None)", 0.000131997131595137], ["'mechanical disinfection' (unit, DK, None)", 0.00176831809470043], ["'H200 SU' (unit, GLO, None)", 0.013288603745294987], ["'autoclave' (unit, DK, None)", 0.0005692589253450651], ["'transport' (ton kilometer, GLO, None)", 0.0005047357977197318], ["'marginal heating grid' (megajoule, DK, None)", -0.0010354942636500168], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005550152654871521], ["'eol MUD' (kilogram, GLO, None)", 4.48025799617755e-05], ["'scalpel' (unit, GLO, None)", 0.001563766604247116], ["'surgery use' (unit, DK, None)", 0.0002378859944525408]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00263087431234035], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270279614996], ["'MUD raw materials' (unit, GLO, None)", 0.000131997131595137], ["'mechanical disinfection' (unit, DK, None)", 0.00176831809470043], ["'H200 SU' (unit, GLO, None)", 0.013288603745294987], ["'autoclave' (unit, DK, None)", 0.00048793622172434164], ["'transport' (ton kilometer, GLO, None)", 0.0005047357977197318], ["'marginal heating grid' (megajoule, DK, None)", -0.00018865244448901353], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0001011159503615163], ["'eol MUD' (kilogram, GLO, None)", 4.48025799617755e-05], ["'scalpel' (unit, GLO, None)", 0.001563766604247116], ["'surgery use' (unit, DK, None)", 0.0002378859944525408]]</t>
   </si>
 </sst>
 </file>
@@ -560,79 +566,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -695,9 +701,12 @@
       <c r="U2" t="s">
         <v>61</v>
       </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -759,6 +768,9 @@
       </c>
       <c r="U3" t="s">
         <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/data_case2_consq_recipe.xlsx
+++ b/results/case2_consq/data_case2_consq_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001743240477307964], ["'SUD manufacturing' (unit, GLO, None)", 0.0172355348041119], ["'SUD raw materials' (unit, GLO, None)", 0.001022410068963112], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564331490967], ["'marginal heating grid' (megajoule, DK, None)", -0.0003009715454775589], ["'transport' (ton kilometer, GLO, None)", 1.1432094580629275e-05], ["'eol SUD' (kilogram, GLO, None)", 5.762199458242302e-05], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.7337231604869874e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302470066619], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.585036208369033e-05], ["'MUD raw materials' (unit, GLO, None)", 1.045268349667739e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00026395610067300864], ["'H200 SU' (unit, GLO, None)", 6.616809857590507e-05], ["'autoclave' (unit, DK, None)", 0.00012427815850690846], ["'transport' (ton kilometer, GLO, None)", 4.676204672998054e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2454174116136224e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3003902285946525e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002898383317e-06], ["'scalpel' (unit, GLO, None)", 0.0003494982775540133], ["'surgery use' (unit, DK, None)", 3.70864756549577e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263463255905], ["'SUD manufacturing' (unit, GLO, None)", 0.8423395377495404], ["'SUD raw materials' (unit, GLO, None)", 0.1671249430011358], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561146419174], ["'marginal heating grid' (megajoule, DK, None)", -0.06332781331341467], ["'transport' (ton kilometer, GLO, None)", 0.009201302600962255], ["'eol SUD' (kilogram, GLO, None)", 0.4228759525764293], ["'surgery use' (unit, DK, None)", 0.003338416852669521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516847706972]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178858743574], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247527982494], ["'MUD raw materials' (unit, GLO, None)", 0.0009338764909956511], ["'mechanical disinfection' (unit, DK, None)", 0.025475885234447104], ["'H200 SU' (unit, GLO, None)", 0.0923677731039343], ["'autoclave' (unit, DK, None)", 0.01099251056435768], ["'transport' (ton kilometer, GLO, None)", 0.0037637174812387205], ["'marginal heating grid' (megajoule, DK, None)", -0.00262049893171128], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0012346755345972616], ["'eol MUD' (kilogram, GLO, None)", 0.014549819720870508], ["'scalpel' (unit, GLO, None)", 0.01855843283211279], ["'surgery use' (unit, DK, None)", 0.003338416852669521]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381564059266357], ["'SUD manufacturing' (unit, GLO, None)", 0.6379439843841606], ["'SUD raw materials' (unit, GLO, None)", 0.02542561171137364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308775484312], ["'marginal heating grid' (megajoule, DK, None)", -0.01070396289674016], ["'transport' (ton kilometer, GLO, None)", 0.00025509249119566834], ["'eol SUD' (kilogram, GLO, None)", 0.03522084813266139], ["'surgery use' (unit, DK, None)", 0.002499280189861484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.0250460117494596e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855873430091], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699455958421], ["'MUD raw materials' (unit, GLO, None)", 0.0003408795383523723], ["'mechanical disinfection' (unit, DK, None)", 0.015926458129695942], ["'H200 SU' (unit, GLO, None)", 0.0017341826454957369], ["'autoclave' (unit, DK, None)", 0.004804913484606625], ["'transport' (ton kilometer, GLO, None)", 0.00010434349462058407], ["'marginal heating grid' (megajoule, DK, None)", -0.00044292897335905686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006040352938904772], ["'eol MUD' (kilogram, GLO, None)", 0.000729386611864489], ["'scalpel' (unit, GLO, None)", 0.01098912015861164], ["'surgery use' (unit, DK, None)", 0.002499280189861484]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095527863084], ["'SUD manufacturing' (unit, GLO, None)", 0.8601191274460525], ["'SUD raw materials' (unit, GLO, None)", 0.03525272094388336], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01802183517466691], ["'marginal heating grid' (megajoule, DK, None)", -0.013484798045914024], ["'transport' (ton kilometer, GLO, None)", 0.0004315874666365156], ["'eol SUD' (kilogram, GLO, None)", 0.04844171326934938], ["'surgery use' (unit, DK, None)", 0.003047335088770119], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172185513546e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061539022565133], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122498178861], ["'MUD raw materials' (unit, GLO, None)", 0.001489825328919748], ["'mechanical disinfection' (unit, DK, None)", 0.019365957904359736], ["'H200 SU' (unit, GLO, None)", 0.002791227175426975], ["'autoclave' (unit, DK, None)", 0.005679017339138976], ["'transport' (ton kilometer, GLO, None)", 0.00017653731904149233], ["'marginal heating grid' (megajoule, DK, None)", -0.0005579996690991805], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0007457418811649749], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226441951], ["'scalpel' (unit, GLO, None)", 0.01524433021911954], ["'surgery use' (unit, DK, None)", 0.003047335088770119]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765496986643238], ["'SUD manufacturing' (unit, GLO, None)", 141.2756881313846], ["'SUD raw materials' (unit, GLO, None)", 7.355646502641995], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836332375444], ["'marginal heating grid' (megajoule, DK, None)", -0.9805235214147271], ["'transport' (ton kilometer, GLO, None)", 0.1772745981375091], ["'eol SUD' (kilogram, GLO, None)", 0.9425449741579245], ["'surgery use' (unit, DK, None)", 0.1585704041583562], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.01083698559389665]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317263923665999], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509118359179], ["'MUD raw materials' (unit, GLO, None)", 0.05933654358196971], ["'mechanical disinfection' (unit, DK, None)", 1.070268604948164], ["'H200 SU' (unit, GLO, None)", 0.14041486013389484], ["'autoclave' (unit, DK, None)", 0.439965631425259], ["'transport' (ton kilometer, GLO, None)", 0.07251272270079852], ["'marginal heating grid' (megajoule, DK, None)", -0.04057397067649561], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.03785366256531117], ["'eol MUD' (kilogram, GLO, None)", 0.03487713431824268], ["'scalpel' (unit, GLO, None)", 3.264321953426819], ["'surgery use' (unit, DK, None)", 0.1585704041583562]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640032346847], ["'SUD manufacturing' (unit, GLO, None)", 0.2433081077526297], ["'SUD raw materials' (unit, GLO, None)", 0.06922828461558775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315205155608], ["'marginal heating grid' (megajoule, DK, None)", -0.015196616890703602], ["'transport' (ton kilometer, GLO, None)", 0.0029295109138951186], ["'eol SUD' (kilogram, GLO, None)", 0.003573189777147397], ["'surgery use' (unit, DK, None)", 0.0007670950792152127], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396224027428]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01121757484075297], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392649721569], ["'MUD raw materials' (unit, GLO, None)", 0.0002388097092501001], ["'mechanical disinfection' (unit, DK, None)", 0.006206330254028547], ["'H200 SU' (unit, GLO, None)", 0.03281594678598505], ["'autoclave' (unit, DK, None)", 0.0028457518611875324], ["'transport' (ton kilometer, GLO, None)", 0.0011982924501313125], ["'marginal heating grid' (megajoule, DK, None)", -0.0006288345711643067], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003043622663558994], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271552948246], ["'scalpel' (unit, GLO, None)", 0.004552448416723472], ["'surgery use' (unit, DK, None)", 0.0007670950792152127]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991178147817623e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001229999333567889], ["'SUD raw materials' (unit, GLO, None)", 5.755860547748152e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198515522582e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.0698485209238615e-05], ["'transport' (ton kilometer, GLO, None)", 9.220203933111423e-07], ["'eol SUD' (kilogram, GLO, None)", 9.77299760913987e-06], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782225105772e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.111781587842124e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.6980541904458035e-06], ["'MUD raw materials' (unit, GLO, None)", 2.244443813074147e-07], ["'mechanical disinfection' (unit, DK, None)", 1.434050265786121e-05], ["'H200 SU' (unit, GLO, None)", 3.3663374310908627e-06], ["'autoclave' (unit, DK, None)", -3.9196455450344235e-06], ["'transport' (ton kilometer, GLO, None)", 3.77144891637499e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.2703004175721897e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.976016080179149e-07], ["'eol MUD' (kilogram, GLO, None)", 3.553843860534347e-07], ["'scalpel' (unit, GLO, None)", 1.910487327836576e-05], ["'surgery use' (unit, DK, None)", 1.458626215211919e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159353861914e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.177460826677798e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098936917073e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268770806597e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.716100565814001e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754498100914e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353498114694e-06], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.62992644138852e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604577928945e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.24858187106885e-07], ["'MUD raw materials' (unit, GLO, None)", 2.94023055790863e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473891970594e-05], ["'H200 SU' (unit, GLO, None)", 6.866388618061285e-07], ["'autoclave' (unit, DK, None)", 2.851107298701231e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860238203594e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.1239198479680163e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.316187995349604e-08], ["'eol MUD' (kilogram, GLO, None)", 6.397287951726756e-08], ["'scalpel' (unit, GLO, None)", 6.950377660046241e-07], ["'surgery use' (unit, DK, None)", 1.2868433419508e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002037023590657297], ["'SUD manufacturing' (unit, GLO, None)", 0.1486508526869145], ["'SUD raw materials' (unit, GLO, None)", 0.01405179606750083], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173058833329], ["'marginal heating grid' (megajoule, DK, None)", -0.0033577879726655597], ["'transport' (ton kilometer, GLO, None)", 0.00012238156876832732], ["'eol SUD' (kilogram, GLO, None)", 0.007893174920955733], ["'surgery use' (unit, DK, None)", 0.0005170130020783718], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748760625944896e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701125250241838], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00041689141544757865], ["'MUD raw materials' (unit, GLO, None)", 8.87876690260552e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0032576199376974342], ["'H200 SU' (unit, GLO, None)", 0.0007322000702123128], ["'autoclave' (unit, DK, None)", 0.0005820478042008126], ["'transport' (ton kilometer, GLO, None)", 5.005917854572053e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013894494906583463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00018547190872658258], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426358604879], ["'scalpel' (unit, GLO, None)", 0.005047138262592836], ["'surgery use' (unit, DK, None)", 0.0005170130020783718]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012957096694405], ["'SUD manufacturing' (unit, GLO, None)", 15.65297737817522], ["'SUD raw materials' (unit, GLO, None)", 0.3317613451659215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351058485838], ["'marginal heating grid' (megajoule, DK, None)", -0.13822784958137185], ["'transport' (ton kilometer, GLO, None)", 0.007777795353033536], ["'eol SUD' (kilogram, GLO, None)", 0.5678474447952642], ["'surgery use' (unit, DK, None)", 0.01972150835766379], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114626244322]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222486493987793], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00868648443615628], ["'MUD raw materials' (unit, GLO, None)", 0.006597698286115432], ["'mechanical disinfection' (unit, DK, None)", 0.1337064778451818], ["'H200 SU' (unit, GLO, None)", 0.030779806824449224], ["'autoclave' (unit, DK, None)", 0.024632553125329592], ["'transport' (ton kilometer, GLO, None)", 0.0031814434982986267], ["'marginal heating grid' (megajoule, DK, None)", -0.0057198553559404605], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006013953306330626], ["'eol MUD' (kilogram, GLO, None)", 0.01005709900385145], ["'scalpel' (unit, GLO, None)", 0.1364140600290401], ["'surgery use' (unit, DK, None)", 0.01972150835766379]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027176004874678544], ["'SUD manufacturing' (unit, GLO, None)", 0.06108873383046336], ["'SUD raw materials' (unit, GLO, None)", 0.002150464180050342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.46729676471805e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.012251866314400648], ["'transport' (ton kilometer, GLO, None)", 3.997786055717128e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132276402398612], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538491553694e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001053918336943368], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547212978955], ["'MUD raw materials' (unit, GLO, None)", -2.301735609704827e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509265463011362], ["'H200 SU' (unit, GLO, None)", 7.661236358950896e-05], ["'autoclave' (unit, DK, None)", 0.00026412570696647357], ["'transport' (ton kilometer, GLO, None)", 1.6352616489953727e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0005069810705362747], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.0899605298609073e-06], ["'eol MUD' (kilogram, GLO, None)", -9.351900854855653e-06], ["'scalpel' (unit, GLO, None)", 0.0001865478376356653], ["'surgery use' (unit, DK, None)", 1.608537413715593e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01906269431334605], ["'SUD manufacturing' (unit, GLO, None)", 0.1511758425252755], ["'SUD raw materials' (unit, GLO, None)", 0.001500136638616798], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1470620058956153], ["'marginal heating grid' (megajoule, DK, None)", -0.07772600566561551], ["'transport' (ton kilometer, GLO, None)", 0.0003808730198176791], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261134961389], ["'surgery use' (unit, DK, None)", 0.01315159688233521], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025189933885]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1476712969118822], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587882271771], ["'MUD raw materials' (unit, GLO, None)", 4.80424462990982e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0882141699330583], ["'H200 SU' (unit, GLO, None)", -0.017383238600843037], ["'autoclave' (unit, DK, None)", 0.037915692296387325], ["'transport' (ton kilometer, GLO, None)", 0.0001557929898610299], ["'marginal heating grid' (megajoule, DK, None)", -0.0032162947709073165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006085412271368072], ["'eol MUD' (kilogram, GLO, None)", 2.911454613337023e-05], ["'scalpel' (unit, GLO, None)", 0.0008428021956784468], ["'surgery use' (unit, DK, None)", 0.01315159688233521]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701023919422926e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907182680969564], ["'SUD raw materials' (unit, GLO, None)", 0.006047829521366243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000387631195732208], ["'marginal heating grid' (megajoule, DK, None)", -3.098354883589746e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534422662383e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050938159319528e-05], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978508297209138e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378265513241545e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809678526165455e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002187085847060317], ["'mechanical disinfection' (unit, DK, None)", 6.44776042965574e-05], ["'H200 SU' (unit, GLO, None)", 4.073180115808557e-05], ["'autoclave' (unit, DK, None)", 6.992132070520389e-05], ["'transport' (ton kilometer, GLO, None)", 1.628614051575805e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.2820963235105841e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.604014320971661e-05], ["'eol MUD' (kilogram, GLO, None)", 2.0593802524738057e-06], ["'scalpel' (unit, GLO, None)", 0.002545299620741351], ["'surgery use' (unit, DK, None)", 2.294984405270567e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803502735352e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.540543838751471e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006736807728e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924447509295e-07], ["'marginal heating grid' (megajoule, DK, None)", -9.76109358924866e-08], ["'transport' (ton kilometer, GLO, None)", 4.1015002056622875e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213686303833e-08], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338402199667e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.050435467857002e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.4253517139152763e-09], ["'MUD raw materials' (unit, GLO, None)", 2.640842785711657e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513820798312e-08], ["'H200 SU' (unit, GLO, None)", -1.0216203696549964e-08], ["'autoclave' (unit, DK, None)", -3.938877272607897e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850727353537e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.039131304971425e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.842811743276039e-09], ["'eol MUD' (kilogram, GLO, None)", 2.144745078091703e-09], ["'scalpel' (unit, GLO, None)", 5.765542955507828e-09], ["'surgery use' (unit, DK, None)", 1.286921467898262e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506458602829], ["'SUD manufacturing' (unit, GLO, None)", 0.005613009689248504], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913484004753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834688481586], ["'marginal heating grid' (megajoule, DK, None)", -0.00018019781128686624], ["'transport' (ton kilometer, GLO, None)", 7.046592373906674e-06], ["'eol SUD' (kilogram, GLO, None)", 2.55816414823966e-05], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407835624591e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001966470765341141], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291368654545e-05], ["'MUD raw materials' (unit, GLO, None)", 4.348836728397027e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737319768526538e-05], ["'H200 SU' (unit, GLO, None)", 3.11648164168069e-05], ["'autoclave' (unit, DK, None)", 5.1557473385509985e-05], ["'transport' (ton kilometer, GLO, None)", 2.88235090736636e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.4565684060011035e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.585652996629559e-06], ["'eol MUD' (kilogram, GLO, None)", 1.0111668545463458e-06], ["'scalpel' (unit, GLO, None)", 0.000133646247234297], ["'surgery use' (unit, DK, None)", 1.293174752909604e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001666038389894882], ["'SUD manufacturing' (unit, GLO, None)", 0.004645513003485093], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160832469996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003669297099055696], ["'marginal heating grid' (megajoule, DK, None)", -0.0003562692050054135], ["'transport' (ton kilometer, GLO, None)", 1.4617259282813189e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404059917019396e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454172930939e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387001397801823], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987045037892e-05], ["'MUD raw materials' (unit, GLO, None)", 9.181136506399753e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023422380400555862], ["'H200 SU' (unit, GLO, None)", 5.1360091150051e-05], ["'autoclave' (unit, DK, None)", 8.857498853393499e-05], ["'transport' (ton kilometer, GLO, None)", 5.979070211729541e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.4742386042888188e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5183517631153537e-05], ["'eol MUD' (kilogram, GLO, None)", 3.0606519804866146e-06], ["'scalpel' (unit, GLO, None)", 6.607934871834462e-05], ["'surgery use' (unit, DK, None)", 3.492261048023666e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416442895248], ["'SUD manufacturing' (unit, GLO, None)", 0.004776248403353508], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382331167213], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003749870742363974], ["'marginal heating grid' (megajoule, DK, None)", -0.00036616258006000357], ["'transport' (ton kilometer, GLO, None)", 1.6594221778907553e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355584299151e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350436951147934e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000395765262424173], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242019758769e-05], ["'MUD raw materials' (unit, GLO, None)", 9.38446413866794e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0002396869118683127], ["'H200 SU' (unit, GLO, None)", 5.793318707906643e-05], ["'autoclave' (unit, DK, None)", 9.043620224778543e-05], ["'transport' (ton kilometer, GLO, None)", 6.787730531793958e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.5151772967923234e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5516930625727446e-05], ["'eol MUD' (kilogram, GLO, None)", 3.1205947685226213e-06], ["'scalpel' (unit, GLO, None)", 6.891290063113821e-05], ["'surgery use' (unit, DK, None)", 3.572138059209756e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805794682304], ["'SUD manufacturing' (unit, GLO, None)", 0.006116465824549104], ["'SUD raw materials' (unit, GLO, None)", 0.001892874629998673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395274815474], ["'marginal heating grid' (megajoule, DK, None)", -0.0005120176307322694], ["'transport' (ton kilometer, GLO, None)", 1.3643310305041385e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350820981124], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.7927014727521e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308602183302], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728435668887], ["'MUD raw materials' (unit, GLO, None)", -1.660040580640854e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00025148699481069463], ["'H200 SU' (unit, GLO, None)", 0.0003474393196749765], ["'autoclave' (unit, DK, None)", 0.00012475758249843146], ["'transport' (ton kilometer, GLO, None)", 5.580684357851529e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.118724118438861e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3506979328225e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770216529211e-05], ["'scalpel' (unit, GLO, None)", -1.265926839364866e-05], ["'surgery use' (unit, DK, None)", 3.101371742294035e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.35888624325195e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.094005269670633e-08], ["'SUD raw materials' (unit, GLO, None)", 8.92930933746462e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.533039540452e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.018165973171327e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523747724804e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265623333607e-09], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584936447414796e-11]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650450379312042e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359276092783e-11], ["'MUD raw materials' (unit, GLO, None)", 7.689420593111054e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753611925948666e-10], ["'H200 SU' (unit, GLO, None)", 1.3141413568584388e-10], ["'autoclave' (unit, DK, None)", 4.1136612959635863e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801382532504e-11], ["'marginal heating grid' (megajoule, DK, None)", -4.213161177373318e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.34370351141608e-11], ["'eol MUD' (kilogram, GLO, None)", 4.3112602910251515e-11], ["'scalpel' (unit, GLO, None)", 2.017326786497207e-10], ["'surgery use' (unit, DK, None)", 1.432707789605602e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702503332407e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.385986167345217e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183359276183e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275420643417e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.1634377997237152e-07], ["'transport' (ton kilometer, GLO, None)", 1.51943476293686e-08], ["'eol SUD' (kilogram, GLO, None)", 5.65349124603913e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563448974209e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.325379597696775e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920178416034e-08], ["'MUD raw materials' (unit, GLO, None)", 5.405736829334122e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694773316560425e-07], ["'H200 SU' (unit, GLO, None)", 1.155575281638174e-07], ["'autoclave' (unit, DK, None)", 5.0481339267911796e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123474223332e-09], ["'marginal heating grid' (megajoule, DK, None)", -8.95228517514417e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.0632962072111384e-09], ["'eol MUD' (kilogram, GLO, None)", 1.689238252471215e-08], ["'scalpel' (unit, GLO, None)", 1.490714930334773e-07], ["'surgery use' (unit, DK, None)", 1.754646710870664e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774314947607], ["'SUD manufacturing' (unit, GLO, None)", 0.05016967649099503], ["'SUD raw materials' (unit, GLO, None)", 0.02615081599853262], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001744977966], ["'marginal heating grid' (megajoule, DK, None)", -0.004559035167367073], ["'transport' (ton kilometer, GLO, None)", 0.0012339467113320131], ["'eol SUD' (kilogram, GLO, None)", 0.001288015495279953], ["'surgery use' (unit, DK, None)", 0.0002378859944525408], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633769468985]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00263087431234035], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270279614996], ["'MUD raw materials' (unit, GLO, None)", 0.000131997131595137], ["'mechanical disinfection' (unit, DK, None)", 0.00176831809470043], ["'H200 SU' (unit, GLO, None)", 0.013288603745294987], ["'autoclave' (unit, DK, None)", 0.00048793622172434164], ["'transport' (ton kilometer, GLO, None)", 0.0005047357977197318], ["'marginal heating grid' (megajoule, DK, None)", -0.00018865244448901353], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0001011159503615163], ["'eol MUD' (kilogram, GLO, None)", 4.48025799617755e-05], ["'scalpel' (unit, GLO, None)", 0.001563766604247116], ["'surgery use' (unit, DK, None)", 0.0002378859944525408]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404700840515], ["'SUD manufacturing' (unit, GLO, None)", 0.01723553482377382], ["'SUD raw materials' (unit, GLO, None)", 0.001022410065176756], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564294663192], ["'marginal heating grid' (megajoule, DK, None)", -0.00030097160508594026], ["'transport' (ton kilometer, GLO, None)", 1.1432094652202707e-05], ["'eol SUD' (kilogram, GLO, None)", 5.762199449262327e-05], ["'surgery use' (unit, DK, None)", 3.708647548879161e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723173499591e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302178853473], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.585036253967256e-05], ["'MUD raw materials' (unit, GLO, None)", 4.9743844701732e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00026395613870948246], ["'H200 SU' (unit, GLO, None)", 6.616810192599304e-05], ["'autoclave' (unit, DK, None)", 0.0001242781170833021], ["'transport' (ton kilometer, GLO, None)", 4.67620470227458e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2454176582725414e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3003902133553531e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002879114202e-06], ["'scalpel' (unit, GLO, None)", 6.882498105409029e-05], ["'surgery use' (unit, DK, None)", 3.708647548879161e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263420184819], ["'SUD manufacturing' (unit, GLO, None)", 0.8423395418169911], ["'SUD raw materials' (unit, GLO, None)", 0.1671249425549109], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.029837561679948846], ["'marginal heating grid' (megajoule, DK, None)", -0.06332782674975627], ["'transport' (ton kilometer, GLO, None)", 0.009201302613890848], ["'eol SUD' (kilogram, GLO, None)", 0.42287595245629067], ["'surgery use' (unit, DK, None)", 0.00333841692755643], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001757551674537615]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178598411835], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.014885247549881197], ["'MUD raw materials' (unit, GLO, None)", 0.0008808656344149565], ["'mechanical disinfection' (unit, DK, None)", 0.025475888015766123], ["'H200 SU' (unit, GLO, None)", 0.09236777280632087], ["'autoclave' (unit, DK, None)", 0.010992506897040448], ["'transport' (ton kilometer, GLO, None)", 0.0037637174865270554], ["'marginal heating grid' (megajoule, DK, None)", -0.0026204994877058263], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0012346755566746703], ["'eol MUD' (kilogram, GLO, None)", 0.014549819719918622], ["'scalpel' (unit, GLO, None)", 0.01584249284537435], ["'surgery use' (unit, DK, None)", 0.00333841692755643]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381563152882177], ["'SUD manufacturing' (unit, GLO, None)", 0.6379439847632044], ["'SUD raw materials' (unit, GLO, None)", 0.02542561157454648], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01459730886339428], ["'marginal heating grid' (megajoule, DK, None)", -0.010703964085175745], ["'transport' (ton kilometer, GLO, None)", 0.0002550924948233185], ["'eol SUD' (kilogram, GLO, None)", 0.03522084811641059], ["'surgery use' (unit, DK, None)", 0.002499280193148566], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045790556081e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855809426233], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699332277463], ["'MUD raw materials' (unit, GLO, None)", 0.0001773544667444446], ["'mechanical disinfection' (unit, DK, None)", 0.015926459058257313], ["'H200 SU' (unit, GLO, None)", 0.001734182672267059], ["'autoclave' (unit, DK, None)", 0.0048049124723638665], ["'transport' (ton kilometer, GLO, None)", 0.00010434349610444466], ["'marginal heating grid' (megajoule, DK, None)", -0.00044292902253640905], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006040352975281836], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866119107311], ["'scalpel' (unit, GLO, None)", 0.002611132643237284], ["'surgery use' (unit, DK, None)", 0.002499280193148566]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549094325897122], ["'SUD manufacturing' (unit, GLO, None)", 0.86011912794663], ["'SUD raw materials' (unit, GLO, None)", 0.0352527207612813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835291026068], ["'marginal heating grid' (megajoule, DK, None)", -0.013484799580393872], ["'transport' (ton kilometer, GLO, None)", 0.0004315874712844012], ["'eol SUD' (kilogram, GLO, None)", 0.04844171324644591], ["'surgery use' (unit, DK, None)", 0.003047335091672905], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605171902503845e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061538934706172], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004840122340079782], ["'MUD raw materials' (unit, GLO, None)", 0.001261347408823984], ["'mechanical disinfection' (unit, DK, None)", 0.019365959185466488], ["'H200 SU' (unit, GLO, None)", 0.0027912272215758673], ["'autoclave' (unit, DK, None)", 0.00567901594456073], ["'transport' (ton kilometer, GLO, None)", 0.0001765373209426719], ["'marginal heating grid' (megajoule, DK, None)", -0.0005579997325958116], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0007457418859799062], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455226831575], ["'scalpel' (unit, GLO, None)", 0.003538570707895135], ["'surgery use' (unit, DK, None)", 0.003047335091672905]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765495622409895], ["'SUD manufacturing' (unit, GLO, None)", 141.2756881911623], ["'SUD raw materials' (unit, GLO, None)", 7.355646477067299], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836370339054], ["'marginal heating grid' (megajoule, DK, None)", -0.9805235937889984], ["'transport' (ton kilometer, GLO, None)", 0.17727459873514134], ["'eol SUD' (kilogram, GLO, None)", 0.9425449693326201], ["'surgery use' (unit, DK, None)", 0.15857040061372], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985519020062]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317263754003841], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0427650905634595], ["'MUD raw materials' (unit, GLO, None)", 0.005609440003780075], ["'mechanical disinfection' (unit, DK, None)", 1.0702688864676024], ["'H200 SU' (unit, GLO, None)", 0.1404148907734319], ["'autoclave' (unit, DK, None)", 0.43996534155646344], ["'transport' (ton kilometer, GLO, None)", 0.0725127229452551], ["'marginal heating grid' (megajoule, DK, None)", -0.04057397367133612], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.03785366272240424], ["'eol MUD' (kilogram, GLO, None)", 0.034877134274203914], ["'scalpel' (unit, GLO, None)", 0.5116859261686164], ["'surgery use' (unit, DK, None)", 0.15857040061372]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.03928640019817924], ["'SUD manufacturing' (unit, GLO, None)", 0.243308108829099], ["'SUD raw materials' (unit, GLO, None)", 0.0692282845095837], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0073553153195491106], ["'marginal heating grid' (megajoule, DK, None)", -0.015196620300342788], ["'transport' (ton kilometer, GLO, None)", 0.0029295109142674952], ["'eol SUD' (kilogram, GLO, None)", 0.0035731897438938615], ["'surgery use' (unit, DK, None)", 0.0007670950943523099], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173962016349524]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01121757410726379], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392656498136], ["'MUD raw materials' (unit, GLO, None)", 0.0002326559962445362], ["'mechanical disinfection' (unit, DK, None)", 0.006206330801385369], ["'H200 SU' (unit, GLO, None)", 0.03281594668022712], ["'autoclave' (unit, DK, None)", 0.0028457510132239364], ["'transport' (ton kilometer, GLO, None)", 0.0011982924502836302], ["'marginal heating grid' (megajoule, DK, None)", -0.0006288347122548542], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00030436227108949197], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271496965591], ["'scalpel' (unit, GLO, None)", 0.004237171212277895], ["'surgery use' (unit, DK, None)", 0.0007670950943523099]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991177972998463e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001229999335031476], ["'SUD raw materials' (unit, GLO, None)", 5.755860517449239e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198869278839e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.069848834532177e-05], ["'transport' (ton kilometer, GLO, None)", 9.220204120994959e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772997559746183e-06], ["'surgery use' (unit, DK, None)", 1.458626279268284e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782113484778e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.111781458595525e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.6980541694824423e-06], ["'MUD raw materials' (unit, GLO, None)", 8.540604352153529e-08], ["'mechanical disinfection' (unit, DK, None)", 1.4340504632438609e-05], ["'H200 SU' (unit, GLO, None)", 3.3663373390217627e-06], ["'autoclave' (unit, DK, None)", -3.919647643176202e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448993227212e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.2703005473430146e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.976016226563162e-07], ["'eol MUD' (kilogram, GLO, None)", 3.55384386391714e-07], ["'scalpel' (unit, GLO, None)", 1.198143075024289e-05], ["'surgery use' (unit, DK, None)", 1.458626279268284e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159347232437e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.177460841620722e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098923786354e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268962969758e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.7161010730333067e-06], ["'transport' (ton kilometer, GLO, None)", 2.497754507156836e-07], ["'eol SUD' (kilogram, GLO, None)", 2.259935350817633e-06], ["'surgery use' (unit, DK, None)", 1.286843375001774e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264421654634e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604572129694e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581877484972e-07], ["'MUD raw materials' (unit, GLO, None)", 3.029168933876264e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473901337338e-05], ["'H200 SU' (unit, GLO, None)", 6.866388458802705e-07], ["'autoclave' (unit, DK, None)", 2.85110728920262e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860275246102e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.1239200578548858e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.3161880748665434e-08], ["'eol MUD' (kilogram, GLO, None)", 6.397287960578003e-08], ["'scalpel' (unit, GLO, None)", 7.406041521652816e-07], ["'surgery use' (unit, DK, None)", 1.286843375001774e-07]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020370234710740147], ["'SUD manufacturing' (unit, GLO, None)", 0.1486508528287636], ["'SUD raw materials' (unit, GLO, None)", 0.01405179596672969], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173177484195], ["'marginal heating grid' (megajoule, DK, None)", -0.0033577890094044715], ["'transport' (ton kilometer, GLO, None)", 0.00012238157018916215], ["'eol SUD' (kilogram, GLO, None)", 0.007893174878139444], ["'surgery use' (unit, DK, None)", 0.0005170129972247156], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875850114873e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701124921509345], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004168914056145857], ["'MUD raw materials' (unit, GLO, None)", 0.0001600139671075227], ["'mechanical disinfection' (unit, DK, None)", 0.0032576204756736126], ["'H200 SU' (unit, GLO, None)", 0.0007322000447669882], ["'autoclave' (unit, DK, None)", 0.0005820472495654819], ["'transport' (ton kilometer, GLO, None)", 5.005917912690138e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00013894499196599283], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00018547191363634446], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426348203894], ["'scalpel' (unit, GLO, None)", 0.008696322052697643], ["'surgery use' (unit, DK, None)", 0.0005170129972247156]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.050129569439908685], ["'SUD manufacturing' (unit, GLO, None)", 15.6529773867226], ["'SUD raw materials' (unit, GLO, None)", 0.3317613424423152], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351079545877], ["'marginal heating grid' (megajoule, DK, None)", -0.1382278672024197], ["'transport' (ton kilometer, GLO, None)", 0.007777795425494166], ["'eol SUD' (kilogram, GLO, None)", 0.5678474443183228], ["'surgery use' (unit, DK, None)", 0.01972150823174414], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00353381143105137]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222486329213418], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.008686484306653117], ["'MUD raw materials' (unit, GLO, None)", 0.004880110409384141], ["'mechanical disinfection' (unit, DK, None)", 0.13370650486549018], ["'H200 SU' (unit, GLO, None)", 0.030779808745784575], ["'autoclave' (unit, DK, None)", 0.024632525002418557], ["'transport' (ton kilometer, GLO, None)", 0.0031814435279380535], ["'marginal heating grid' (megajoule, DK, None)", -0.005719856085097755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006013953393476873], ["'eol MUD' (kilogram, GLO, None)", 0.010057099001966009], ["'scalpel' (unit, GLO, None)", 0.04841575099440842], ["'surgery use' (unit, DK, None)", 0.01972150823174414]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002717600490730946], ["'SUD manufacturing' (unit, GLO, None)", 0.06108873392340893], ["'SUD raw materials' (unit, GLO, None)", 0.002150464185737549], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.46729964459721e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.012251866328082863], ["'transport' (ton kilometer, GLO, None)", 3.997786146888424e-05], ["'eol SUD' (kilogram, GLO, None)", -0.00022132276233000805], ["'surgery use' (unit, DK, None)", 1.608537441291882e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538494594215e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001053918395716281], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547219701528], ["'MUD raw materials' (unit, GLO, None)", -3.029014171177474e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266328765071], ["'H200 SU' (unit, GLO, None)", 7.661235979945507e-05], ["'autoclave' (unit, DK, None)", 0.0002641256962142795], ["'transport' (ton kilometer, GLO, None)", 1.6352616862882445e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0005069810711024435], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.089961721552253e-06], ["'eol MUD' (kilogram, GLO, None)", -9.351900738424266e-06], ["'scalpel' (unit, GLO, None)", -0.000186063567767365], ["'surgery use' (unit, DK, None)", 1.608537441291882e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.019062694085845454], ["'SUD manufacturing' (unit, GLO, None)", 0.1511758435662256], ["'SUD raw materials' (unit, GLO, None)", 0.001500136561658416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14706200601472597], ["'marginal heating grid' (megajoule, DK, None)", -0.07772601037594884], ["'transport' (ton kilometer, GLO, None)", 0.0003808730175174488], ["'eol SUD' (kilogram, GLO, None)", 0.0008101261178833167], ["'surgery use' (unit, DK, None)", 0.01315159691848217], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025287112366]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.147671296700052], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409588073902502], ["'MUD raw materials' (unit, GLO, None)", 5.715679748167357e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0882141706874209], ["'H200 SU' (unit, GLO, None)", -0.017383238500673852], ["'autoclave' (unit, DK, None)", 0.037915691599087434], ["'transport' (ton kilometer, GLO, None)", 0.00015579298892013952], ["'marginal heating grid' (megajoule, DK, None)", -0.003216294965820465], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006085412276296861], ["'eol MUD' (kilogram, GLO, None)", 2.9114545651107637e-05], ["'scalpel' (unit, GLO, None)", 0.001309763737740073], ["'surgery use' (unit, DK, None)", 0.01315159691848217]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701022164153131e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907182677852071], ["'SUD raw materials' (unit, GLO, None)", 0.006047829506071503], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038763122051200247], ["'marginal heating grid' (megajoule, DK, None)", -3.0983920236578065e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534384410058e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050944417930044e-05], ["'surgery use' (unit, DK, None)", 2.294990432290861e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978507342872087e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378265796172384e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809676299920554e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0001886544142873208], ["'mechanical disinfection' (unit, DK, None)", 6.447754793141888e-05], ["'H200 SU' (unit, GLO, None)", 4.073177088471878e-05], ["'autoclave' (unit, DK, None)", 6.992135446495488e-05], ["'transport' (ton kilometer, GLO, None)", 1.6286140359290047e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.2821116920356578e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6040144235102224e-05], ["'eol MUD' (kilogram, GLO, None)", 2.059380070624233e-06], ["'scalpel' (unit, GLO, None)", 0.001005514549940887], ["'surgery use' (unit, DK, None)", 2.294990432290861e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803519876615e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.540543865104784e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006736104498e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.411992446677806e-07], ["'marginal heating grid' (megajoule, DK, None)", -9.761094106917121e-08], ["'transport' (ton kilometer, GLO, None)", 4.1015002144891185e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213688658305e-08], ["'surgery use' (unit, DK, None)", 1.286921469012965e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633878771707e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.050434774965198e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.4253517895693644e-09], ["'MUD raw materials' (unit, GLO, None)", 2.604943851296673e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513948502534e-08], ["'H200 SU' (unit, GLO, None)", -1.0216203661752115e-08], ["'autoclave' (unit, DK, None)", -3.938877398672655e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850763458966e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.039131519182145e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.842811751249437e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1447450794777906e-09], ["'scalpel' (unit, GLO, None)", 3.926309246927566e-09], ["'surgery use' (unit, DK, None)", 1.286921469012965e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506427264437], ["'SUD manufacturing' (unit, GLO, None)", 0.005613009701514854], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913470820474], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834621555072], ["'marginal heating grid' (megajoule, DK, None)", -0.00018019784260537452], ["'transport' (ton kilometer, GLO, None)", 7.046592420313029e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581641430706833e-05], ["'surgery use' (unit, DK, None)", 1.293174758556902e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407837550199e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001966470661391516], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291661507103e-05], ["'MUD raw materials' (unit, GLO, None)", 2.893241395146133e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737321008827228e-05], ["'H200 SU' (unit, GLO, None)", 3.116481684956133e-05], ["'autoclave' (unit, DK, None)", 5.1557459265962454e-05], ["'transport' (ton kilometer, GLO, None)", 2.8823509263484996e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.456569701958017e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.585652968935429e-06], ["'eol MUD' (kilogram, GLO, None)", 1.0111668546508787e-06], ["'scalpel' (unit, GLO, None)", 5.907077444121439e-05], ["'surgery use' (unit, DK, None)", 1.293174758556902e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00016660383980257826], ["'SUD manufacturing' (unit, GLO, None)", 0.004645513045906044], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160837045155], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036692970944153774], ["'marginal heating grid' (megajoule, DK, None)", -0.0003562692921873298], ["'transport' (ton kilometer, GLO, None)", 1.4617259313020512e-05], ["'eol SUD' (kilogram, GLO, None)", 9.404059949208134e-05], ["'surgery use' (unit, DK, None)", 3.492261073006593e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454304841143e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000387001381950418], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.44298718440568e-05], ["'MUD raw materials' (unit, GLO, None)", 8.670297058054145e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0002342238135969689], ["'H200 SU' (unit, GLO, None)", 5.136009088572975e-05], ["'autoclave' (unit, DK, None)", 8.857497348316307e-05], ["'transport' (ton kilometer, GLO, None)", 5.979070224085598e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.4742389650467647e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.518351761195194e-05], ["'eol MUD' (kilogram, GLO, None)", 3.060651986856099e-06], ["'scalpel' (unit, GLO, None)", 3.990717511041279e-05], ["'surgery use' (unit, DK, None)", 3.492261073006593e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416503608195], ["'SUD manufacturing' (unit, GLO, None)", 0.004776248446193858], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382334139141], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003749870736717535], ["'marginal heating grid' (megajoule, DK, None)", -0.0003661626701504753], ["'transport' (ton kilometer, GLO, None)", 1.6594221804481002e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355612083574e-05], ["'surgery use' (unit, DK, None)", 3.57213808474867e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504370815871196e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003957652458078526], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.8052421575251705e-05], ["'MUD raw materials' (unit, GLO, None)", 8.869001404134788e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023968692168364035], ["'H200 SU' (unit, GLO, None)", 5.793318670764722e-05], ["'autoclave' (unit, DK, None)", 9.043618656560243e-05], ["'transport' (ton kilometer, GLO, None)", 6.787730542254568e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.5151776695858443e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5516930602362533e-05], ["'eol MUD' (kilogram, GLO, None)", 3.1205947736291488e-06], ["'scalpel' (unit, GLO, None)", 4.250385917277129e-05], ["'surgery use' (unit, DK, None)", 3.57213808474867e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805773720885], ["'SUD manufacturing' (unit, GLO, None)", 0.006116465840492111], ["'SUD raw materials' (unit, GLO, None)", 0.001892874629122063], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395933263607], ["'marginal heating grid' (megajoule, DK, None)", -0.0005120176813860235], ["'transport' (ton kilometer, GLO, None)", 1.3643310282953691e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350818892409], ["'surgery use' (unit, DK, None)", 3.101371776551778e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701460057513e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308530540712], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728409326217], ["'MUD raw materials' (unit, GLO, None)", 3.276361016497016e-07], ["'mechanical disinfection' (unit, DK, None)", 0.00025148700464827243], ["'H200 SU' (unit, GLO, None)", 0.00034743931827550323], ["'autoclave' (unit, DK, None)", 0.00012475756721943329], ["'transport' (ton kilometer, GLO, None)", 5.580684348816739e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.1187243280436167e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3506979600690234e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770235862441e-05], ["'scalpel' (unit, GLO, None)", 8.9176678559666e-05], ["'surgery use' (unit, DK, None)", 3.101371776551778e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.358886206761749e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.094005272900746e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309304402166e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5330395425033715e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.0181660807821685e-09], ["'transport' (ton kilometer, GLO, None)", 3.6575237533881956e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265619507326e-09], ["'surgery use' (unit, DK, None)", 1.432707794938278e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493651444416e-11]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650450358487022e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.3153593235333e-11], ["'MUD raw materials' (unit, GLO, None)", 5.549688318979379e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753612217232466e-10], ["'H200 SU' (unit, GLO, None)", 1.3141413671533517e-10], ["'autoclave' (unit, DK, None)", 4.113660967698945e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801405698147e-11], ["'marginal heating grid' (megajoule, DK, None)", -4.213161622665963e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.343703519904637e-11], ["'eol MUD' (kilogram, GLO, None)", 4.311260290331344e-11], ["'scalpel' (unit, GLO, None)", 9.210636821016855e-11], ["'surgery use' (unit, DK, None)", 1.432707794938278e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.479170236879764e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.385986181330261e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183337290055e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4652754302953142e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.1634381978823277e-07], ["'transport' (ton kilometer, GLO, None)", 1.5194347691758194e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491242089741e-07], ["'surgery use' (unit, DK, None)", 1.754646717009882e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563426281645e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.32537945948209e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.029920192727209e-08], ["'MUD raw materials' (unit, GLO, None)", 4.291447129700928e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694775151034307e-07], ["'H200 SU' (unit, GLO, None)", 1.1555752850801455e-07], ["'autoclave' (unit, DK, None)", 5.0481318699020236e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123499743285e-09], ["'marginal heating grid' (megajoule, DK, None)", -8.952286822720747e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.063296247150601e-09], ["'eol MUD' (kilogram, GLO, None)", 1.689238252006379e-08], ["'scalpel' (unit, GLO, None)", 9.19823563554168e-08], ["'surgery use' (unit, DK, None)", 1.754646717009882e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01497277427424028], ["'SUD manufacturing' (unit, GLO, None)", 0.05016967685194183], ["'SUD raw materials' (unit, GLO, None)", 0.0261508159721844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002443600199291708], ["'marginal heating grid' (megajoule, DK, None)", -0.0045590363964101216], ["'transport' (ton kilometer, GLO, None)", 0.0012339467100217101], ["'eol SUD' (kilogram, GLO, None)", 0.001288015483707672], ["'surgery use' (unit, DK, None)", 0.0002378859968128369], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633761730096]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002630874086629962], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003650527033371141], ["'MUD raw materials' (unit, GLO, None)", 0.0001241650362080017], ["'mechanical disinfection' (unit, DK, None)", 0.0017683181808478502], ["'H200 SU' (unit, GLO, None)", 0.013288603706492865], ["'autoclave' (unit, DK, None)", 0.0004879360151933876], ["'transport' (ton kilometer, GLO, None)", 0.0005047357971837631], ["'marginal heating grid' (megajoule, DK, None)", -0.00018865249534669875], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00010111595138748608], ["'eol MUD' (kilogram, GLO, None)", 4.480257964317188e-05], ["'scalpel' (unit, GLO, None)", 0.001162499715099924], ["'surgery use' (unit, DK, None)", 0.0002378859968128369]]</t>
   </si>
 </sst>
 </file>
